--- a/codes/test_shell_output/testPRON_New_2.xlsx
+++ b/codes/test_shell_output/testPRON_New_2.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B5:CW53"/>
+  <dimension ref="B5:CW93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -348,3928 +348,6948 @@
   <sheetData>
     <row r="5" spans="2:101">
       <c r="B5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="C5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="D5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="E5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="F5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="G5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="H5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="I5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="J5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="K5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="L5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="M5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="N5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="O5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="P5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="Q5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="R5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="S5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="T5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="U5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="V5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="W5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="X5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="Y5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="Z5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="AA5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="AB5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="AC5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="AD5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="AE5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="AF5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="AG5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="AH5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="AI5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="AJ5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="AK5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="AL5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="AM5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="AN5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="AO5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="AP5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="AQ5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="AR5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="AS5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="AT5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="AU5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="AV5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="AW5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="AX5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="AY5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="AZ5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="BA5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="BB5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="BC5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="BD5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="BE5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="BF5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="BG5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="BH5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="BI5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="BJ5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="BK5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="BL5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="BM5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="BN5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="BO5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="BP5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="BQ5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="BR5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="BS5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="BT5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="BU5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="BV5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="BW5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="BX5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="BY5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="BZ5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="CA5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="CB5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="CC5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="CD5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="CE5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="CF5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="CG5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="CH5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="CI5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="CJ5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="CK5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="CL5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="CM5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="CN5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="CO5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="CP5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="CQ5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="CR5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="CS5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="CT5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="CU5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="CV5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="CW5">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="9" spans="2:101">
       <c r="B9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="C9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="D9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="E9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="F9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="G9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="H9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="I9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="J9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="K9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="L9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="M9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="N9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="O9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="P9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="Q9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="R9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="S9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="T9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="U9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="V9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="W9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="X9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="Y9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="Z9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="AA9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="AB9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="AC9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="AD9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="AE9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="AF9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="AG9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="AH9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="AI9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="AJ9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="AK9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="AL9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="AM9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="AN9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="AO9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="AP9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="AQ9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="AR9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="AS9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="AT9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="AU9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="AV9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="AW9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="AX9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="AY9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="AZ9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="BA9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="BB9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="BC9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="BD9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="BE9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="BF9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="BG9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="BH9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="BI9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="BJ9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="BK9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="BL9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="BM9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="BN9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="BO9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="BP9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="BQ9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="BR9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="BS9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="BT9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="BU9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="BV9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="BW9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="BX9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="BY9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="BZ9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="CA9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="CB9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="CC9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="CD9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="CE9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="CF9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="CG9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="CH9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="CI9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="CJ9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="CK9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="CL9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="CM9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="CN9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="CO9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="CP9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="CQ9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="CR9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="CS9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="CT9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="CU9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="CV9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="CW9">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="13" spans="2:101">
       <c r="B13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="C13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="D13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="E13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="F13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="G13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="H13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="I13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="J13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="K13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="L13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="M13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="N13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="O13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="P13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="Q13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="R13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="S13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="T13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="U13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="V13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="W13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="X13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="Y13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="Z13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="AA13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="AB13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="AC13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="AD13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="AE13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="AF13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="AG13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="AH13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="AI13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="AJ13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="AK13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="AL13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="AM13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="AN13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="AO13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="AP13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="AQ13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="AR13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="AS13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="AT13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="AU13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="AV13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="AW13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="AX13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="AY13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="AZ13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="BA13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="BB13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="BC13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="BD13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="BE13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="BF13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="BG13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="BH13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="BI13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="BJ13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="BK13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="BL13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="BM13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="BN13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="BO13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="BP13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="BQ13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="BR13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="BS13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="BT13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="BU13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="BV13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="BW13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="BX13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="BY13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="BZ13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="CA13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="CB13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="CC13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="CD13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="CE13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="CF13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="CG13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="CH13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="CI13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="CJ13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="CK13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="CL13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="CM13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="CN13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="CO13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="CP13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="CQ13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="CR13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="CS13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="CT13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="CU13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="CV13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="CW13">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
     </row>
     <row r="17" spans="2:101">
       <c r="B17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="C17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="D17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="E17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="F17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="G17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="H17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="I17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="J17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="K17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="L17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="M17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="N17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="O17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="P17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="Q17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="R17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="S17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="T17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="U17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="V17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="W17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="X17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="Y17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="Z17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="AA17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="AB17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="AC17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="AD17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="AE17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="AF17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="AG17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="AH17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="AI17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="AJ17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="AK17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="AL17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="AM17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="AN17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="AO17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="AP17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="AQ17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="AR17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="AS17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="AT17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="AU17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="AV17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="AW17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="AX17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="AY17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="AZ17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="BA17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="BB17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="BC17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="BD17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="BE17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="BF17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="BG17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="BH17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="BI17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="BJ17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="BK17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="BL17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="BM17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="BN17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="BO17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="BP17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="BQ17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="BR17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="BS17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="BT17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="BU17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="BV17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="BW17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="BX17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="BY17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="BZ17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="CA17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="CB17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="CC17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="CD17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="CE17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="CF17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="CG17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="CH17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="CI17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="CJ17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="CK17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="CL17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="CM17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="CN17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="CO17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="CP17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="CQ17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="CR17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="CS17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="CT17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="CU17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="CV17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="CW17">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="21" spans="2:101">
       <c r="B21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="C21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="D21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="E21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="F21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="G21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="H21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="I21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="J21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="K21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="L21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="M21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="N21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="O21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="P21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="Q21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="R21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="S21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="T21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="U21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="V21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="W21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="X21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="Y21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="Z21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="AA21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="AB21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="AC21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="AD21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="AE21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="AF21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="AG21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="AH21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="AI21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="AJ21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="AK21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="AL21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="AM21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="AN21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="AO21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="AP21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="AQ21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="AR21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="AS21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="AT21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="AU21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="AV21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="AW21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="AX21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="AY21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="AZ21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="BA21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="BB21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="BC21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="BD21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="BE21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="BF21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="BG21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="BH21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="BI21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="BJ21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="BK21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="BL21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="BM21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="BN21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="BO21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="BP21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="BQ21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="BR21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="BS21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="BT21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="BU21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="BV21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="BW21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="BX21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="BY21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="BZ21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="CA21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="CB21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="CC21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="CD21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="CE21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="CF21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="CG21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="CH21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="CI21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="CJ21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="CK21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="CL21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="CM21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="CN21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="CO21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="CP21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="CQ21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="CR21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="CS21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="CT21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="CU21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="CV21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="CW21">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="25" spans="2:101">
       <c r="B25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="C25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="D25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="E25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="F25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="G25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="H25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="I25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="J25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="K25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="L25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="M25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="N25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="O25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="P25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="Q25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="R25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="S25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="T25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="U25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="V25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="W25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="X25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="Y25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="Z25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="AA25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="AB25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="AC25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="AD25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="AE25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="AF25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="AG25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="AH25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="AI25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="AJ25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="AK25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="AL25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="AM25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="AN25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="AO25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="AP25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="AQ25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="AR25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="AS25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="AT25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="AU25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="AV25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="AW25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="AX25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="AY25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="AZ25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="BA25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="BB25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="BC25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="BD25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="BE25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="BF25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="BG25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="BH25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="BI25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="BJ25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="BK25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="BL25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="BM25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="BN25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="BO25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="BP25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="BQ25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="BR25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="BS25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="BT25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="BU25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="BV25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="BW25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="BX25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="BY25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="BZ25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="CA25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="CB25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="CC25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="CD25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="CE25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="CF25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="CG25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="CH25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="CI25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="CJ25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="CK25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="CL25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="CM25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="CN25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="CO25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="CP25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="CQ25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="CR25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="CS25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="CT25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="CU25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="CV25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="CW25">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="29" spans="2:101">
       <c r="B29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="C29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="D29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="E29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="F29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="G29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="H29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="I29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="J29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="K29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="L29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="M29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="N29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="O29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="P29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="Q29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="R29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="S29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="T29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="U29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="V29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="W29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="X29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="Y29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="Z29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="AA29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="AB29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="AC29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="AD29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="AE29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="AF29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="AG29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="AH29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="AI29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="AJ29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="AK29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="AL29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="AM29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="AN29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="AO29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="AP29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="AQ29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="AR29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="AS29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="AT29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="AU29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="AV29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="AW29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="AX29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="AY29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="AZ29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="BA29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="BB29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="BC29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="BD29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="BE29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="BF29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="BG29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="BH29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="BI29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="BJ29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="BK29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="BL29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="BM29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="BN29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="BO29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="BP29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="BQ29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="BR29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="BS29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="BT29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="BU29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="BV29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="BW29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="BX29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="BY29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="BZ29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="CA29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="CB29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="CC29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="CD29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="CE29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="CF29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="CG29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="CH29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="CI29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="CJ29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="CK29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="CL29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="CM29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="CN29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="CO29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="CP29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="CQ29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="CR29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="CS29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="CT29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="CU29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="CV29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="CW29">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="33" spans="2:101">
       <c r="B33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="C33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="D33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="E33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="F33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="G33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="H33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="I33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="J33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="K33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="L33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="M33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="N33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="O33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="P33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="Q33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="R33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="S33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="T33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="U33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="V33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="W33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="X33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="Y33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="Z33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="AA33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="AB33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="AC33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="AD33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="AE33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="AF33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="AG33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="AH33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="AI33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="AJ33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="AK33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="AL33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="AM33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="AN33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="AO33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="AP33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="AQ33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="AR33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="AS33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="AT33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="AU33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="AV33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="AW33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="AX33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="AY33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="AZ33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="BA33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="BB33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="BC33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="BD33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="BE33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="BF33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="BG33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="BH33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="BI33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="BJ33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="BK33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="BL33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="BM33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="BN33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="BO33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="BP33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="BQ33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="BR33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="BS33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="BT33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="BU33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="BV33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="BW33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="BX33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="BY33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="BZ33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="CA33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="CB33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="CC33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="CD33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="CE33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="CF33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="CG33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="CH33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="CI33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="CJ33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="CK33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="CL33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="CM33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="CN33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="CO33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="CP33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="CQ33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="CR33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="CS33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="CT33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="CU33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="CV33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="CW33">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
     </row>
     <row r="37" spans="2:101">
       <c r="B37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="C37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="D37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="E37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="F37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="G37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="H37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="I37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="J37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="K37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="L37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="M37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="N37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="O37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="P37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="Q37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="R37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="S37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="T37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="U37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="V37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="W37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="X37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="Y37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="Z37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="AA37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="AB37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="AC37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="AD37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="AE37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="AF37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="AG37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="AH37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="AI37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="AJ37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="AK37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="AL37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="AM37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="AN37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="AO37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="AP37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="AQ37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="AR37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="AS37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="AT37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="AU37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="AV37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="AW37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="AX37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="AY37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="AZ37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="BA37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="BB37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="BC37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="BD37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="BE37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="BF37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="BG37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="BH37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="BI37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="BJ37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="BK37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="BL37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="BM37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="BN37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="BO37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="BP37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="BQ37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="BR37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="BS37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="BT37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="BU37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="BV37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="BW37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="BX37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="BY37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="BZ37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="CA37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="CB37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="CC37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="CD37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="CE37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="CF37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="CG37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="CH37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="CI37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="CJ37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="CK37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="CL37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="CM37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="CN37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="CO37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="CP37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="CQ37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="CR37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="CS37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="CT37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="CU37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="CV37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="CW37">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
     </row>
     <row r="41" spans="2:101">
       <c r="B41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="C41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="D41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="E41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="F41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="G41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="H41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="I41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="J41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="K41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="L41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="M41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="N41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="O41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="P41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="Q41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="R41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="S41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="T41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="U41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="V41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="W41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="X41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="Y41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="Z41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="AA41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="AB41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="AC41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="AD41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="AE41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="AF41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="AG41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="AH41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="AI41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="AJ41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="AK41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="AL41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="AM41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="AN41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="AO41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="AP41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="AQ41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="AR41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="AS41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="AT41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="AU41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="AV41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="AW41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="AX41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="AY41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="AZ41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="BA41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="BB41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="BC41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="BD41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="BE41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="BF41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="BG41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="BH41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="BI41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="BJ41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="BK41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="BL41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="BM41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="BN41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="BO41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="BP41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="BQ41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="BR41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="BS41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="BT41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="BU41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="BV41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="BW41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="BX41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="BY41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="BZ41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="CA41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="CB41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="CC41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="CD41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="CE41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="CF41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="CG41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="CH41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="CI41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="CJ41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="CK41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="CL41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="CM41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="CN41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="CO41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="CP41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="CQ41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="CR41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="CS41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="CT41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="CU41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="CV41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="CW41">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="45" spans="2:101">
       <c r="B45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="C45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="D45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="E45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="F45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="G45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="H45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="I45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="J45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="K45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="L45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="M45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="N45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="O45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="P45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="Q45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="R45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="S45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="T45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="U45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="V45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="W45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="X45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="Y45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="Z45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="AA45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="AB45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="AC45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="AD45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="AE45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="AF45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="AG45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="AH45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="AI45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="AJ45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="AK45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="AL45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="AM45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="AN45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="AO45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="AP45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="AQ45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="AR45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="AS45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="AT45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="AU45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="AV45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="AW45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="AX45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="AY45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="AZ45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="BA45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="BB45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="BC45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="BD45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="BE45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="BF45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="BG45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="BH45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="BI45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="BJ45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="BK45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="BL45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="BM45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="BN45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="BO45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="BP45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="BQ45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="BR45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="BS45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="BT45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="BU45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="BV45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="BW45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="BX45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="BY45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="BZ45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="CA45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="CB45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="CC45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="CD45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="CE45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="CF45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="CG45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="CH45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="CI45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="CJ45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="CK45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="CL45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="CM45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="CN45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="CO45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="CP45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="CQ45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="CR45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="CS45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="CT45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="CU45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="CV45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="CW45">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
     </row>
     <row r="49" spans="2:101">
       <c r="B49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="C49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="D49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="E49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="F49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="G49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="H49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="I49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="J49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="K49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="L49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="M49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="N49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="O49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="P49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="Q49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="R49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="S49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="T49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="U49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="V49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="W49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="X49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="Y49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="Z49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="AA49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="AB49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="AC49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="AD49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="AE49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="AF49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="AG49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="AH49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="AI49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="AJ49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="AK49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="AL49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="AM49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="AN49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="AO49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="AP49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="AQ49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="AR49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="AS49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="AT49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="AU49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="AV49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="AW49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="AX49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="AY49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="AZ49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="BA49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="BB49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="BC49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="BD49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="BE49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="BF49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="BG49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="BH49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="BI49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="BJ49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="BK49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="BL49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="BM49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="BN49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="BO49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="BP49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="BQ49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="BR49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="BS49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="BT49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="BU49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="BV49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="BW49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="BX49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="BY49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="BZ49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="CA49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="CB49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="CC49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="CD49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="CE49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="CF49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="CG49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="CH49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="CI49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="CJ49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="CK49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="CL49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="CM49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="CN49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="CO49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="CP49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="CQ49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="CR49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="CS49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="CT49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="CU49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="CV49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="CW49">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="53" spans="2:101">
       <c r="B53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="C53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="D53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="E53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="F53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="G53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="H53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="I53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="J53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="K53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="L53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="M53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="N53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="O53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="P53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="Q53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="R53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="S53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="T53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="U53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="V53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="W53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="X53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="Y53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="Z53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="AA53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="AB53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="AC53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="AD53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="AE53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="AF53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="AG53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="AH53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="AI53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="AJ53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="AK53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="AL53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="AM53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="AN53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="AO53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="AP53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="AQ53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="AR53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="AS53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="AT53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="AU53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="AV53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="AW53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="AX53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="AY53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="AZ53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="BA53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="BB53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="BC53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="BD53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="BE53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="BF53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="BG53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="BH53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="BI53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="BJ53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="BK53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="BL53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="BM53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="BN53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="BO53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="BP53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="BQ53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="BR53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="BS53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="BT53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="BU53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="BV53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="BW53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="BX53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="BY53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="BZ53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="CA53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="CB53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="CC53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="CD53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="CE53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="CF53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="CG53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="CH53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="CI53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="CJ53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="CK53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="CL53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="CM53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="CN53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="CO53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="CP53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="CQ53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="CR53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="CS53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="CT53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="CU53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="CV53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="CW53">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
+      </c>
+    </row>
+    <row r="57" spans="2:101">
+      <c r="B57">
+        <v>3.75</v>
+      </c>
+      <c r="C57">
+        <v>3.75</v>
+      </c>
+      <c r="D57">
+        <v>3.75</v>
+      </c>
+      <c r="E57">
+        <v>3.75</v>
+      </c>
+      <c r="F57">
+        <v>3.75</v>
+      </c>
+      <c r="G57">
+        <v>3.75</v>
+      </c>
+      <c r="H57">
+        <v>3.75</v>
+      </c>
+      <c r="I57">
+        <v>3.75</v>
+      </c>
+      <c r="J57">
+        <v>3.75</v>
+      </c>
+      <c r="K57">
+        <v>3.75</v>
+      </c>
+      <c r="L57">
+        <v>3.75</v>
+      </c>
+      <c r="M57">
+        <v>3.75</v>
+      </c>
+      <c r="N57">
+        <v>3.75</v>
+      </c>
+      <c r="O57">
+        <v>3.75</v>
+      </c>
+      <c r="P57">
+        <v>3.75</v>
+      </c>
+      <c r="Q57">
+        <v>3.75</v>
+      </c>
+      <c r="R57">
+        <v>3.75</v>
+      </c>
+      <c r="S57">
+        <v>3.75</v>
+      </c>
+      <c r="T57">
+        <v>3.75</v>
+      </c>
+      <c r="U57">
+        <v>3.75</v>
+      </c>
+      <c r="V57">
+        <v>3.75</v>
+      </c>
+      <c r="W57">
+        <v>3.75</v>
+      </c>
+      <c r="X57">
+        <v>3.75</v>
+      </c>
+      <c r="Y57">
+        <v>3.75</v>
+      </c>
+      <c r="Z57">
+        <v>3.75</v>
+      </c>
+      <c r="AA57">
+        <v>3.75</v>
+      </c>
+      <c r="AB57">
+        <v>3.75</v>
+      </c>
+      <c r="AC57">
+        <v>3.75</v>
+      </c>
+      <c r="AD57">
+        <v>3.75</v>
+      </c>
+      <c r="AE57">
+        <v>3.75</v>
+      </c>
+      <c r="AF57">
+        <v>3.75</v>
+      </c>
+      <c r="AG57">
+        <v>3.75</v>
+      </c>
+      <c r="AH57">
+        <v>3.75</v>
+      </c>
+      <c r="AI57">
+        <v>3.75</v>
+      </c>
+      <c r="AJ57">
+        <v>3.75</v>
+      </c>
+      <c r="AK57">
+        <v>3.75</v>
+      </c>
+      <c r="AL57">
+        <v>3.75</v>
+      </c>
+      <c r="AM57">
+        <v>3.75</v>
+      </c>
+      <c r="AN57">
+        <v>3.75</v>
+      </c>
+      <c r="AO57">
+        <v>3.75</v>
+      </c>
+      <c r="AP57">
+        <v>3.75</v>
+      </c>
+      <c r="AQ57">
+        <v>3.75</v>
+      </c>
+      <c r="AR57">
+        <v>3.75</v>
+      </c>
+      <c r="AS57">
+        <v>3.75</v>
+      </c>
+      <c r="AT57">
+        <v>3.75</v>
+      </c>
+      <c r="AU57">
+        <v>3.75</v>
+      </c>
+      <c r="AV57">
+        <v>3.75</v>
+      </c>
+      <c r="AW57">
+        <v>3.75</v>
+      </c>
+      <c r="AX57">
+        <v>3.75</v>
+      </c>
+      <c r="AY57">
+        <v>3.75</v>
+      </c>
+      <c r="AZ57">
+        <v>3.75</v>
+      </c>
+      <c r="BA57">
+        <v>3.75</v>
+      </c>
+      <c r="BB57">
+        <v>3.75</v>
+      </c>
+      <c r="BC57">
+        <v>3.75</v>
+      </c>
+      <c r="BD57">
+        <v>3.75</v>
+      </c>
+      <c r="BE57">
+        <v>3.75</v>
+      </c>
+      <c r="BF57">
+        <v>3.75</v>
+      </c>
+      <c r="BG57">
+        <v>3.75</v>
+      </c>
+      <c r="BH57">
+        <v>3.75</v>
+      </c>
+      <c r="BI57">
+        <v>3.75</v>
+      </c>
+      <c r="BJ57">
+        <v>3.75</v>
+      </c>
+      <c r="BK57">
+        <v>3.75</v>
+      </c>
+      <c r="BL57">
+        <v>3.75</v>
+      </c>
+      <c r="BM57">
+        <v>3.75</v>
+      </c>
+      <c r="BN57">
+        <v>3.75</v>
+      </c>
+      <c r="BO57">
+        <v>3.75</v>
+      </c>
+      <c r="BP57">
+        <v>3.75</v>
+      </c>
+      <c r="BQ57">
+        <v>3.75</v>
+      </c>
+      <c r="BR57">
+        <v>3.75</v>
+      </c>
+      <c r="BS57">
+        <v>3.75</v>
+      </c>
+      <c r="BT57">
+        <v>3.75</v>
+      </c>
+      <c r="BU57">
+        <v>3.75</v>
+      </c>
+      <c r="BV57">
+        <v>3.75</v>
+      </c>
+      <c r="BW57">
+        <v>3.75</v>
+      </c>
+      <c r="BX57">
+        <v>3.75</v>
+      </c>
+      <c r="BY57">
+        <v>3.75</v>
+      </c>
+      <c r="BZ57">
+        <v>3.75</v>
+      </c>
+      <c r="CA57">
+        <v>3.75</v>
+      </c>
+      <c r="CB57">
+        <v>3.75</v>
+      </c>
+      <c r="CC57">
+        <v>3.75</v>
+      </c>
+      <c r="CD57">
+        <v>3.75</v>
+      </c>
+      <c r="CE57">
+        <v>3.75</v>
+      </c>
+      <c r="CF57">
+        <v>3.75</v>
+      </c>
+      <c r="CG57">
+        <v>3.75</v>
+      </c>
+      <c r="CH57">
+        <v>3.75</v>
+      </c>
+      <c r="CI57">
+        <v>3.75</v>
+      </c>
+      <c r="CJ57">
+        <v>3.75</v>
+      </c>
+      <c r="CK57">
+        <v>3.75</v>
+      </c>
+      <c r="CL57">
+        <v>3.75</v>
+      </c>
+      <c r="CM57">
+        <v>3.75</v>
+      </c>
+      <c r="CN57">
+        <v>3.75</v>
+      </c>
+      <c r="CO57">
+        <v>3.75</v>
+      </c>
+      <c r="CP57">
+        <v>3.75</v>
+      </c>
+      <c r="CQ57">
+        <v>3.75</v>
+      </c>
+      <c r="CR57">
+        <v>3.75</v>
+      </c>
+      <c r="CS57">
+        <v>3.75</v>
+      </c>
+      <c r="CT57">
+        <v>3.75</v>
+      </c>
+      <c r="CU57">
+        <v>3.75</v>
+      </c>
+      <c r="CV57">
+        <v>3.75</v>
+      </c>
+      <c r="CW57">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="61" spans="2:101">
+      <c r="B61">
+        <v>0.625</v>
+      </c>
+      <c r="C61">
+        <v>0.625</v>
+      </c>
+      <c r="D61">
+        <v>0.625</v>
+      </c>
+      <c r="E61">
+        <v>0.625</v>
+      </c>
+      <c r="F61">
+        <v>0.625</v>
+      </c>
+      <c r="G61">
+        <v>0.625</v>
+      </c>
+      <c r="H61">
+        <v>0.625</v>
+      </c>
+      <c r="I61">
+        <v>0.625</v>
+      </c>
+      <c r="J61">
+        <v>0.625</v>
+      </c>
+      <c r="K61">
+        <v>0.625</v>
+      </c>
+      <c r="L61">
+        <v>0.625</v>
+      </c>
+      <c r="M61">
+        <v>0.625</v>
+      </c>
+      <c r="N61">
+        <v>0.625</v>
+      </c>
+      <c r="O61">
+        <v>0.625</v>
+      </c>
+      <c r="P61">
+        <v>0.625</v>
+      </c>
+      <c r="Q61">
+        <v>0.625</v>
+      </c>
+      <c r="R61">
+        <v>0.625</v>
+      </c>
+      <c r="S61">
+        <v>0.625</v>
+      </c>
+      <c r="T61">
+        <v>0.625</v>
+      </c>
+      <c r="U61">
+        <v>0.625</v>
+      </c>
+      <c r="V61">
+        <v>0.625</v>
+      </c>
+      <c r="W61">
+        <v>0.625</v>
+      </c>
+      <c r="X61">
+        <v>0.625</v>
+      </c>
+      <c r="Y61">
+        <v>0.625</v>
+      </c>
+      <c r="Z61">
+        <v>0.625</v>
+      </c>
+      <c r="AA61">
+        <v>0.625</v>
+      </c>
+      <c r="AB61">
+        <v>0.625</v>
+      </c>
+      <c r="AC61">
+        <v>0.625</v>
+      </c>
+      <c r="AD61">
+        <v>0.625</v>
+      </c>
+      <c r="AE61">
+        <v>0.625</v>
+      </c>
+      <c r="AF61">
+        <v>0.625</v>
+      </c>
+      <c r="AG61">
+        <v>0.625</v>
+      </c>
+      <c r="AH61">
+        <v>0.625</v>
+      </c>
+      <c r="AI61">
+        <v>0.625</v>
+      </c>
+      <c r="AJ61">
+        <v>0.625</v>
+      </c>
+      <c r="AK61">
+        <v>0.625</v>
+      </c>
+      <c r="AL61">
+        <v>0.625</v>
+      </c>
+      <c r="AM61">
+        <v>0.625</v>
+      </c>
+      <c r="AN61">
+        <v>0.625</v>
+      </c>
+      <c r="AO61">
+        <v>0.625</v>
+      </c>
+      <c r="AP61">
+        <v>0.625</v>
+      </c>
+      <c r="AQ61">
+        <v>0.625</v>
+      </c>
+      <c r="AR61">
+        <v>0.625</v>
+      </c>
+      <c r="AS61">
+        <v>0.625</v>
+      </c>
+      <c r="AT61">
+        <v>0.625</v>
+      </c>
+      <c r="AU61">
+        <v>0.625</v>
+      </c>
+      <c r="AV61">
+        <v>0.625</v>
+      </c>
+      <c r="AW61">
+        <v>0.625</v>
+      </c>
+      <c r="AX61">
+        <v>0.625</v>
+      </c>
+      <c r="AY61">
+        <v>0.625</v>
+      </c>
+      <c r="AZ61">
+        <v>0.625</v>
+      </c>
+      <c r="BA61">
+        <v>0.625</v>
+      </c>
+      <c r="BB61">
+        <v>0.625</v>
+      </c>
+      <c r="BC61">
+        <v>0.625</v>
+      </c>
+      <c r="BD61">
+        <v>0.625</v>
+      </c>
+      <c r="BE61">
+        <v>0.625</v>
+      </c>
+      <c r="BF61">
+        <v>0.625</v>
+      </c>
+      <c r="BG61">
+        <v>0.625</v>
+      </c>
+      <c r="BH61">
+        <v>0.625</v>
+      </c>
+      <c r="BI61">
+        <v>0.625</v>
+      </c>
+      <c r="BJ61">
+        <v>0.625</v>
+      </c>
+      <c r="BK61">
+        <v>0.625</v>
+      </c>
+      <c r="BL61">
+        <v>0.625</v>
+      </c>
+      <c r="BM61">
+        <v>0.625</v>
+      </c>
+      <c r="BN61">
+        <v>0.625</v>
+      </c>
+      <c r="BO61">
+        <v>0.625</v>
+      </c>
+      <c r="BP61">
+        <v>0.625</v>
+      </c>
+      <c r="BQ61">
+        <v>0.625</v>
+      </c>
+      <c r="BR61">
+        <v>0.625</v>
+      </c>
+      <c r="BS61">
+        <v>0.625</v>
+      </c>
+      <c r="BT61">
+        <v>0.625</v>
+      </c>
+      <c r="BU61">
+        <v>0.625</v>
+      </c>
+      <c r="BV61">
+        <v>0.625</v>
+      </c>
+      <c r="BW61">
+        <v>0.625</v>
+      </c>
+      <c r="BX61">
+        <v>0.625</v>
+      </c>
+      <c r="BY61">
+        <v>0.625</v>
+      </c>
+      <c r="BZ61">
+        <v>0.625</v>
+      </c>
+      <c r="CA61">
+        <v>0.625</v>
+      </c>
+      <c r="CB61">
+        <v>0.625</v>
+      </c>
+      <c r="CC61">
+        <v>0.625</v>
+      </c>
+      <c r="CD61">
+        <v>0.625</v>
+      </c>
+      <c r="CE61">
+        <v>0.625</v>
+      </c>
+      <c r="CF61">
+        <v>0.625</v>
+      </c>
+      <c r="CG61">
+        <v>0.625</v>
+      </c>
+      <c r="CH61">
+        <v>0.625</v>
+      </c>
+      <c r="CI61">
+        <v>0.625</v>
+      </c>
+      <c r="CJ61">
+        <v>0.625</v>
+      </c>
+      <c r="CK61">
+        <v>0.625</v>
+      </c>
+      <c r="CL61">
+        <v>0.625</v>
+      </c>
+      <c r="CM61">
+        <v>0.625</v>
+      </c>
+      <c r="CN61">
+        <v>0.625</v>
+      </c>
+      <c r="CO61">
+        <v>0.625</v>
+      </c>
+      <c r="CP61">
+        <v>0.625</v>
+      </c>
+      <c r="CQ61">
+        <v>0.625</v>
+      </c>
+      <c r="CR61">
+        <v>0.625</v>
+      </c>
+      <c r="CS61">
+        <v>0.625</v>
+      </c>
+      <c r="CT61">
+        <v>0.625</v>
+      </c>
+      <c r="CU61">
+        <v>0.625</v>
+      </c>
+      <c r="CV61">
+        <v>0.625</v>
+      </c>
+      <c r="CW61">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="65" spans="2:101">
+      <c r="B65">
+        <v>0.3125</v>
+      </c>
+      <c r="C65">
+        <v>0.3125</v>
+      </c>
+      <c r="D65">
+        <v>0.3125</v>
+      </c>
+      <c r="E65">
+        <v>0.3125</v>
+      </c>
+      <c r="F65">
+        <v>0.3125</v>
+      </c>
+      <c r="G65">
+        <v>0.3125</v>
+      </c>
+      <c r="H65">
+        <v>0.3125</v>
+      </c>
+      <c r="I65">
+        <v>0.3125</v>
+      </c>
+      <c r="J65">
+        <v>0.3125</v>
+      </c>
+      <c r="K65">
+        <v>0.3125</v>
+      </c>
+      <c r="L65">
+        <v>0.3125</v>
+      </c>
+      <c r="M65">
+        <v>0.3125</v>
+      </c>
+      <c r="N65">
+        <v>0.3125</v>
+      </c>
+      <c r="O65">
+        <v>0.3125</v>
+      </c>
+      <c r="P65">
+        <v>0.3125</v>
+      </c>
+      <c r="Q65">
+        <v>0.3125</v>
+      </c>
+      <c r="R65">
+        <v>0.3125</v>
+      </c>
+      <c r="S65">
+        <v>0.3125</v>
+      </c>
+      <c r="T65">
+        <v>0.3125</v>
+      </c>
+      <c r="U65">
+        <v>0.3125</v>
+      </c>
+      <c r="V65">
+        <v>0.3125</v>
+      </c>
+      <c r="W65">
+        <v>0.3125</v>
+      </c>
+      <c r="X65">
+        <v>0.3125</v>
+      </c>
+      <c r="Y65">
+        <v>0.3125</v>
+      </c>
+      <c r="Z65">
+        <v>0.3125</v>
+      </c>
+      <c r="AA65">
+        <v>0.3125</v>
+      </c>
+      <c r="AB65">
+        <v>0.3125</v>
+      </c>
+      <c r="AC65">
+        <v>0.3125</v>
+      </c>
+      <c r="AD65">
+        <v>0.3125</v>
+      </c>
+      <c r="AE65">
+        <v>0.3125</v>
+      </c>
+      <c r="AF65">
+        <v>0.3125</v>
+      </c>
+      <c r="AG65">
+        <v>0.3125</v>
+      </c>
+      <c r="AH65">
+        <v>0.3125</v>
+      </c>
+      <c r="AI65">
+        <v>0.3125</v>
+      </c>
+      <c r="AJ65">
+        <v>0.3125</v>
+      </c>
+      <c r="AK65">
+        <v>0.3125</v>
+      </c>
+      <c r="AL65">
+        <v>0.3125</v>
+      </c>
+      <c r="AM65">
+        <v>0.3125</v>
+      </c>
+      <c r="AN65">
+        <v>0.3125</v>
+      </c>
+      <c r="AO65">
+        <v>0.3125</v>
+      </c>
+      <c r="AP65">
+        <v>0.3125</v>
+      </c>
+      <c r="AQ65">
+        <v>0.3125</v>
+      </c>
+      <c r="AR65">
+        <v>0.3125</v>
+      </c>
+      <c r="AS65">
+        <v>0.3125</v>
+      </c>
+      <c r="AT65">
+        <v>0.3125</v>
+      </c>
+      <c r="AU65">
+        <v>0.3125</v>
+      </c>
+      <c r="AV65">
+        <v>0.3125</v>
+      </c>
+      <c r="AW65">
+        <v>0.3125</v>
+      </c>
+      <c r="AX65">
+        <v>0.3125</v>
+      </c>
+      <c r="AY65">
+        <v>0.3125</v>
+      </c>
+      <c r="AZ65">
+        <v>0.3125</v>
+      </c>
+      <c r="BA65">
+        <v>0.3125</v>
+      </c>
+      <c r="BB65">
+        <v>0.3125</v>
+      </c>
+      <c r="BC65">
+        <v>0.3125</v>
+      </c>
+      <c r="BD65">
+        <v>0.3125</v>
+      </c>
+      <c r="BE65">
+        <v>0.3125</v>
+      </c>
+      <c r="BF65">
+        <v>0.3125</v>
+      </c>
+      <c r="BG65">
+        <v>0.3125</v>
+      </c>
+      <c r="BH65">
+        <v>0.3125</v>
+      </c>
+      <c r="BI65">
+        <v>0.3125</v>
+      </c>
+      <c r="BJ65">
+        <v>0.3125</v>
+      </c>
+      <c r="BK65">
+        <v>0.3125</v>
+      </c>
+      <c r="BL65">
+        <v>0.3125</v>
+      </c>
+      <c r="BM65">
+        <v>0.3125</v>
+      </c>
+      <c r="BN65">
+        <v>0.3125</v>
+      </c>
+      <c r="BO65">
+        <v>0.3125</v>
+      </c>
+      <c r="BP65">
+        <v>0.3125</v>
+      </c>
+      <c r="BQ65">
+        <v>0.3125</v>
+      </c>
+      <c r="BR65">
+        <v>0.3125</v>
+      </c>
+      <c r="BS65">
+        <v>0.3125</v>
+      </c>
+      <c r="BT65">
+        <v>0.3125</v>
+      </c>
+      <c r="BU65">
+        <v>0.3125</v>
+      </c>
+      <c r="BV65">
+        <v>0.3125</v>
+      </c>
+      <c r="BW65">
+        <v>0.3125</v>
+      </c>
+      <c r="BX65">
+        <v>0.3125</v>
+      </c>
+      <c r="BY65">
+        <v>0.3125</v>
+      </c>
+      <c r="BZ65">
+        <v>0.3125</v>
+      </c>
+      <c r="CA65">
+        <v>0.3125</v>
+      </c>
+      <c r="CB65">
+        <v>0.3125</v>
+      </c>
+      <c r="CC65">
+        <v>0.3125</v>
+      </c>
+      <c r="CD65">
+        <v>0.3125</v>
+      </c>
+      <c r="CE65">
+        <v>0.3125</v>
+      </c>
+      <c r="CF65">
+        <v>0.3125</v>
+      </c>
+      <c r="CG65">
+        <v>0.3125</v>
+      </c>
+      <c r="CH65">
+        <v>0.3125</v>
+      </c>
+      <c r="CI65">
+        <v>0.3125</v>
+      </c>
+      <c r="CJ65">
+        <v>0.3125</v>
+      </c>
+      <c r="CK65">
+        <v>0.3125</v>
+      </c>
+      <c r="CL65">
+        <v>0.3125</v>
+      </c>
+      <c r="CM65">
+        <v>0.3125</v>
+      </c>
+      <c r="CN65">
+        <v>0.3125</v>
+      </c>
+      <c r="CO65">
+        <v>0.3125</v>
+      </c>
+      <c r="CP65">
+        <v>0.3125</v>
+      </c>
+      <c r="CQ65">
+        <v>0.3125</v>
+      </c>
+      <c r="CR65">
+        <v>0.3125</v>
+      </c>
+      <c r="CS65">
+        <v>0.3125</v>
+      </c>
+      <c r="CT65">
+        <v>0.3125</v>
+      </c>
+      <c r="CU65">
+        <v>0.3125</v>
+      </c>
+      <c r="CV65">
+        <v>0.3125</v>
+      </c>
+      <c r="CW65">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="69" spans="2:101">
+      <c r="B69">
+        <v>0.3125</v>
+      </c>
+      <c r="C69">
+        <v>0.3125</v>
+      </c>
+      <c r="D69">
+        <v>0.3125</v>
+      </c>
+      <c r="E69">
+        <v>0.3125</v>
+      </c>
+      <c r="F69">
+        <v>0.3125</v>
+      </c>
+      <c r="G69">
+        <v>0.3125</v>
+      </c>
+      <c r="H69">
+        <v>0.3125</v>
+      </c>
+      <c r="I69">
+        <v>0.3125</v>
+      </c>
+      <c r="J69">
+        <v>0.3125</v>
+      </c>
+      <c r="K69">
+        <v>0.3125</v>
+      </c>
+      <c r="L69">
+        <v>0.3125</v>
+      </c>
+      <c r="M69">
+        <v>0.3125</v>
+      </c>
+      <c r="N69">
+        <v>0.3125</v>
+      </c>
+      <c r="O69">
+        <v>0.3125</v>
+      </c>
+      <c r="P69">
+        <v>0.3125</v>
+      </c>
+      <c r="Q69">
+        <v>0.3125</v>
+      </c>
+      <c r="R69">
+        <v>0.3125</v>
+      </c>
+      <c r="S69">
+        <v>0.3125</v>
+      </c>
+      <c r="T69">
+        <v>0.3125</v>
+      </c>
+      <c r="U69">
+        <v>0.3125</v>
+      </c>
+      <c r="V69">
+        <v>0.3125</v>
+      </c>
+      <c r="W69">
+        <v>0.3125</v>
+      </c>
+      <c r="X69">
+        <v>0.3125</v>
+      </c>
+      <c r="Y69">
+        <v>0.3125</v>
+      </c>
+      <c r="Z69">
+        <v>0.3125</v>
+      </c>
+      <c r="AA69">
+        <v>0.3125</v>
+      </c>
+      <c r="AB69">
+        <v>0.3125</v>
+      </c>
+      <c r="AC69">
+        <v>0.3125</v>
+      </c>
+      <c r="AD69">
+        <v>0.3125</v>
+      </c>
+      <c r="AE69">
+        <v>0.3125</v>
+      </c>
+      <c r="AF69">
+        <v>0.3125</v>
+      </c>
+      <c r="AG69">
+        <v>0.3125</v>
+      </c>
+      <c r="AH69">
+        <v>0.3125</v>
+      </c>
+      <c r="AI69">
+        <v>0.3125</v>
+      </c>
+      <c r="AJ69">
+        <v>0.3125</v>
+      </c>
+      <c r="AK69">
+        <v>0.3125</v>
+      </c>
+      <c r="AL69">
+        <v>0.3125</v>
+      </c>
+      <c r="AM69">
+        <v>0.3125</v>
+      </c>
+      <c r="AN69">
+        <v>0.3125</v>
+      </c>
+      <c r="AO69">
+        <v>0.3125</v>
+      </c>
+      <c r="AP69">
+        <v>0.3125</v>
+      </c>
+      <c r="AQ69">
+        <v>0.3125</v>
+      </c>
+      <c r="AR69">
+        <v>0.3125</v>
+      </c>
+      <c r="AS69">
+        <v>0.3125</v>
+      </c>
+      <c r="AT69">
+        <v>0.3125</v>
+      </c>
+      <c r="AU69">
+        <v>0.3125</v>
+      </c>
+      <c r="AV69">
+        <v>0.3125</v>
+      </c>
+      <c r="AW69">
+        <v>0.3125</v>
+      </c>
+      <c r="AX69">
+        <v>0.3125</v>
+      </c>
+      <c r="AY69">
+        <v>0.3125</v>
+      </c>
+      <c r="AZ69">
+        <v>0.3125</v>
+      </c>
+      <c r="BA69">
+        <v>0.3125</v>
+      </c>
+      <c r="BB69">
+        <v>0.3125</v>
+      </c>
+      <c r="BC69">
+        <v>0.3125</v>
+      </c>
+      <c r="BD69">
+        <v>0.3125</v>
+      </c>
+      <c r="BE69">
+        <v>0.3125</v>
+      </c>
+      <c r="BF69">
+        <v>0.3125</v>
+      </c>
+      <c r="BG69">
+        <v>0.3125</v>
+      </c>
+      <c r="BH69">
+        <v>0.3125</v>
+      </c>
+      <c r="BI69">
+        <v>0.3125</v>
+      </c>
+      <c r="BJ69">
+        <v>0.3125</v>
+      </c>
+      <c r="BK69">
+        <v>0.3125</v>
+      </c>
+      <c r="BL69">
+        <v>0.3125</v>
+      </c>
+      <c r="BM69">
+        <v>0.3125</v>
+      </c>
+      <c r="BN69">
+        <v>0.3125</v>
+      </c>
+      <c r="BO69">
+        <v>0.3125</v>
+      </c>
+      <c r="BP69">
+        <v>0.3125</v>
+      </c>
+      <c r="BQ69">
+        <v>0.3125</v>
+      </c>
+      <c r="BR69">
+        <v>0.3125</v>
+      </c>
+      <c r="BS69">
+        <v>0.3125</v>
+      </c>
+      <c r="BT69">
+        <v>0.3125</v>
+      </c>
+      <c r="BU69">
+        <v>0.3125</v>
+      </c>
+      <c r="BV69">
+        <v>0.3125</v>
+      </c>
+      <c r="BW69">
+        <v>0.3125</v>
+      </c>
+      <c r="BX69">
+        <v>0.3125</v>
+      </c>
+      <c r="BY69">
+        <v>0.3125</v>
+      </c>
+      <c r="BZ69">
+        <v>0.3125</v>
+      </c>
+      <c r="CA69">
+        <v>0.3125</v>
+      </c>
+      <c r="CB69">
+        <v>0.3125</v>
+      </c>
+      <c r="CC69">
+        <v>0.3125</v>
+      </c>
+      <c r="CD69">
+        <v>0.3125</v>
+      </c>
+      <c r="CE69">
+        <v>0.3125</v>
+      </c>
+      <c r="CF69">
+        <v>0.3125</v>
+      </c>
+      <c r="CG69">
+        <v>0.3125</v>
+      </c>
+      <c r="CH69">
+        <v>0.3125</v>
+      </c>
+      <c r="CI69">
+        <v>0.3125</v>
+      </c>
+      <c r="CJ69">
+        <v>0.3125</v>
+      </c>
+      <c r="CK69">
+        <v>0.3125</v>
+      </c>
+      <c r="CL69">
+        <v>0.3125</v>
+      </c>
+      <c r="CM69">
+        <v>0.3125</v>
+      </c>
+      <c r="CN69">
+        <v>0.3125</v>
+      </c>
+      <c r="CO69">
+        <v>0.3125</v>
+      </c>
+      <c r="CP69">
+        <v>0.3125</v>
+      </c>
+      <c r="CQ69">
+        <v>0.3125</v>
+      </c>
+      <c r="CR69">
+        <v>0.3125</v>
+      </c>
+      <c r="CS69">
+        <v>0.3125</v>
+      </c>
+      <c r="CT69">
+        <v>0.3125</v>
+      </c>
+      <c r="CU69">
+        <v>0.3125</v>
+      </c>
+      <c r="CV69">
+        <v>0.3125</v>
+      </c>
+      <c r="CW69">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="73" spans="2:101">
+      <c r="B73">
+        <v>0.3125</v>
+      </c>
+      <c r="C73">
+        <v>0.3125</v>
+      </c>
+      <c r="D73">
+        <v>0.3125</v>
+      </c>
+      <c r="E73">
+        <v>0.3125</v>
+      </c>
+      <c r="F73">
+        <v>0.3125</v>
+      </c>
+      <c r="G73">
+        <v>0.3125</v>
+      </c>
+      <c r="H73">
+        <v>0.3125</v>
+      </c>
+      <c r="I73">
+        <v>0.3125</v>
+      </c>
+      <c r="J73">
+        <v>0.3125</v>
+      </c>
+      <c r="K73">
+        <v>0.3125</v>
+      </c>
+      <c r="L73">
+        <v>0.3125</v>
+      </c>
+      <c r="M73">
+        <v>0.3125</v>
+      </c>
+      <c r="N73">
+        <v>0.3125</v>
+      </c>
+      <c r="O73">
+        <v>0.3125</v>
+      </c>
+      <c r="P73">
+        <v>0.3125</v>
+      </c>
+      <c r="Q73">
+        <v>0.3125</v>
+      </c>
+      <c r="R73">
+        <v>0.3125</v>
+      </c>
+      <c r="S73">
+        <v>0.3125</v>
+      </c>
+      <c r="T73">
+        <v>0.3125</v>
+      </c>
+      <c r="U73">
+        <v>0.3125</v>
+      </c>
+      <c r="V73">
+        <v>0.3125</v>
+      </c>
+      <c r="W73">
+        <v>0.3125</v>
+      </c>
+      <c r="X73">
+        <v>0.3125</v>
+      </c>
+      <c r="Y73">
+        <v>0.3125</v>
+      </c>
+      <c r="Z73">
+        <v>0.3125</v>
+      </c>
+      <c r="AA73">
+        <v>0.3125</v>
+      </c>
+      <c r="AB73">
+        <v>0.3125</v>
+      </c>
+      <c r="AC73">
+        <v>0.3125</v>
+      </c>
+      <c r="AD73">
+        <v>0.3125</v>
+      </c>
+      <c r="AE73">
+        <v>0.3125</v>
+      </c>
+      <c r="AF73">
+        <v>0.3125</v>
+      </c>
+      <c r="AG73">
+        <v>0.3125</v>
+      </c>
+      <c r="AH73">
+        <v>0.3125</v>
+      </c>
+      <c r="AI73">
+        <v>0.3125</v>
+      </c>
+      <c r="AJ73">
+        <v>0.3125</v>
+      </c>
+      <c r="AK73">
+        <v>0.3125</v>
+      </c>
+      <c r="AL73">
+        <v>0.3125</v>
+      </c>
+      <c r="AM73">
+        <v>0.3125</v>
+      </c>
+      <c r="AN73">
+        <v>0.3125</v>
+      </c>
+      <c r="AO73">
+        <v>0.3125</v>
+      </c>
+      <c r="AP73">
+        <v>0.3125</v>
+      </c>
+      <c r="AQ73">
+        <v>0.3125</v>
+      </c>
+      <c r="AR73">
+        <v>0.3125</v>
+      </c>
+      <c r="AS73">
+        <v>0.3125</v>
+      </c>
+      <c r="AT73">
+        <v>0.3125</v>
+      </c>
+      <c r="AU73">
+        <v>0.3125</v>
+      </c>
+      <c r="AV73">
+        <v>0.3125</v>
+      </c>
+      <c r="AW73">
+        <v>0.3125</v>
+      </c>
+      <c r="AX73">
+        <v>0.3125</v>
+      </c>
+      <c r="AY73">
+        <v>0.3125</v>
+      </c>
+      <c r="AZ73">
+        <v>0.3125</v>
+      </c>
+      <c r="BA73">
+        <v>0.3125</v>
+      </c>
+      <c r="BB73">
+        <v>0.3125</v>
+      </c>
+      <c r="BC73">
+        <v>0.3125</v>
+      </c>
+      <c r="BD73">
+        <v>0.3125</v>
+      </c>
+      <c r="BE73">
+        <v>0.3125</v>
+      </c>
+      <c r="BF73">
+        <v>0.3125</v>
+      </c>
+      <c r="BG73">
+        <v>0.3125</v>
+      </c>
+      <c r="BH73">
+        <v>0.3125</v>
+      </c>
+      <c r="BI73">
+        <v>0.3125</v>
+      </c>
+      <c r="BJ73">
+        <v>0.3125</v>
+      </c>
+      <c r="BK73">
+        <v>0.3125</v>
+      </c>
+      <c r="BL73">
+        <v>0.3125</v>
+      </c>
+      <c r="BM73">
+        <v>0.3125</v>
+      </c>
+      <c r="BN73">
+        <v>0.3125</v>
+      </c>
+      <c r="BO73">
+        <v>0.3125</v>
+      </c>
+      <c r="BP73">
+        <v>0.3125</v>
+      </c>
+      <c r="BQ73">
+        <v>0.3125</v>
+      </c>
+      <c r="BR73">
+        <v>0.3125</v>
+      </c>
+      <c r="BS73">
+        <v>0.3125</v>
+      </c>
+      <c r="BT73">
+        <v>0.3125</v>
+      </c>
+      <c r="BU73">
+        <v>0.3125</v>
+      </c>
+      <c r="BV73">
+        <v>0.3125</v>
+      </c>
+      <c r="BW73">
+        <v>0.3125</v>
+      </c>
+      <c r="BX73">
+        <v>0.3125</v>
+      </c>
+      <c r="BY73">
+        <v>0.3125</v>
+      </c>
+      <c r="BZ73">
+        <v>0.3125</v>
+      </c>
+      <c r="CA73">
+        <v>0.3125</v>
+      </c>
+      <c r="CB73">
+        <v>0.3125</v>
+      </c>
+      <c r="CC73">
+        <v>0.3125</v>
+      </c>
+      <c r="CD73">
+        <v>0.3125</v>
+      </c>
+      <c r="CE73">
+        <v>0.3125</v>
+      </c>
+      <c r="CF73">
+        <v>0.3125</v>
+      </c>
+      <c r="CG73">
+        <v>0.3125</v>
+      </c>
+      <c r="CH73">
+        <v>0.3125</v>
+      </c>
+      <c r="CI73">
+        <v>0.3125</v>
+      </c>
+      <c r="CJ73">
+        <v>0.3125</v>
+      </c>
+      <c r="CK73">
+        <v>0.3125</v>
+      </c>
+      <c r="CL73">
+        <v>0.3125</v>
+      </c>
+      <c r="CM73">
+        <v>0.3125</v>
+      </c>
+      <c r="CN73">
+        <v>0.3125</v>
+      </c>
+      <c r="CO73">
+        <v>0.3125</v>
+      </c>
+      <c r="CP73">
+        <v>0.3125</v>
+      </c>
+      <c r="CQ73">
+        <v>0.3125</v>
+      </c>
+      <c r="CR73">
+        <v>0.3125</v>
+      </c>
+      <c r="CS73">
+        <v>0.3125</v>
+      </c>
+      <c r="CT73">
+        <v>0.3125</v>
+      </c>
+      <c r="CU73">
+        <v>0.3125</v>
+      </c>
+      <c r="CV73">
+        <v>0.3125</v>
+      </c>
+      <c r="CW73">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="77" spans="2:101">
+      <c r="B77">
+        <v>1.875</v>
+      </c>
+      <c r="C77">
+        <v>1.875</v>
+      </c>
+      <c r="D77">
+        <v>1.875</v>
+      </c>
+      <c r="E77">
+        <v>1.875</v>
+      </c>
+      <c r="F77">
+        <v>1.875</v>
+      </c>
+      <c r="G77">
+        <v>1.875</v>
+      </c>
+      <c r="H77">
+        <v>1.875</v>
+      </c>
+      <c r="I77">
+        <v>1.875</v>
+      </c>
+      <c r="J77">
+        <v>1.875</v>
+      </c>
+      <c r="K77">
+        <v>1.875</v>
+      </c>
+      <c r="L77">
+        <v>1.875</v>
+      </c>
+      <c r="M77">
+        <v>1.875</v>
+      </c>
+      <c r="N77">
+        <v>1.875</v>
+      </c>
+      <c r="O77">
+        <v>1.875</v>
+      </c>
+      <c r="P77">
+        <v>1.875</v>
+      </c>
+      <c r="Q77">
+        <v>1.875</v>
+      </c>
+      <c r="R77">
+        <v>1.875</v>
+      </c>
+      <c r="S77">
+        <v>1.875</v>
+      </c>
+      <c r="T77">
+        <v>1.875</v>
+      </c>
+      <c r="U77">
+        <v>1.875</v>
+      </c>
+      <c r="V77">
+        <v>1.875</v>
+      </c>
+      <c r="W77">
+        <v>1.875</v>
+      </c>
+      <c r="X77">
+        <v>1.875</v>
+      </c>
+      <c r="Y77">
+        <v>1.875</v>
+      </c>
+      <c r="Z77">
+        <v>1.875</v>
+      </c>
+      <c r="AA77">
+        <v>1.875</v>
+      </c>
+      <c r="AB77">
+        <v>1.875</v>
+      </c>
+      <c r="AC77">
+        <v>1.875</v>
+      </c>
+      <c r="AD77">
+        <v>1.875</v>
+      </c>
+      <c r="AE77">
+        <v>1.875</v>
+      </c>
+      <c r="AF77">
+        <v>1.875</v>
+      </c>
+      <c r="AG77">
+        <v>1.875</v>
+      </c>
+      <c r="AH77">
+        <v>1.875</v>
+      </c>
+      <c r="AI77">
+        <v>1.875</v>
+      </c>
+      <c r="AJ77">
+        <v>1.875</v>
+      </c>
+      <c r="AK77">
+        <v>1.875</v>
+      </c>
+      <c r="AL77">
+        <v>1.875</v>
+      </c>
+      <c r="AM77">
+        <v>1.875</v>
+      </c>
+      <c r="AN77">
+        <v>1.875</v>
+      </c>
+      <c r="AO77">
+        <v>1.875</v>
+      </c>
+      <c r="AP77">
+        <v>1.875</v>
+      </c>
+      <c r="AQ77">
+        <v>1.875</v>
+      </c>
+      <c r="AR77">
+        <v>1.875</v>
+      </c>
+      <c r="AS77">
+        <v>1.875</v>
+      </c>
+      <c r="AT77">
+        <v>1.875</v>
+      </c>
+      <c r="AU77">
+        <v>1.875</v>
+      </c>
+      <c r="AV77">
+        <v>1.875</v>
+      </c>
+      <c r="AW77">
+        <v>1.875</v>
+      </c>
+      <c r="AX77">
+        <v>1.875</v>
+      </c>
+      <c r="AY77">
+        <v>1.875</v>
+      </c>
+      <c r="AZ77">
+        <v>1.875</v>
+      </c>
+      <c r="BA77">
+        <v>1.875</v>
+      </c>
+      <c r="BB77">
+        <v>1.875</v>
+      </c>
+      <c r="BC77">
+        <v>1.875</v>
+      </c>
+      <c r="BD77">
+        <v>1.875</v>
+      </c>
+      <c r="BE77">
+        <v>1.875</v>
+      </c>
+      <c r="BF77">
+        <v>1.875</v>
+      </c>
+      <c r="BG77">
+        <v>1.875</v>
+      </c>
+      <c r="BH77">
+        <v>1.875</v>
+      </c>
+      <c r="BI77">
+        <v>1.875</v>
+      </c>
+      <c r="BJ77">
+        <v>1.875</v>
+      </c>
+      <c r="BK77">
+        <v>1.875</v>
+      </c>
+      <c r="BL77">
+        <v>1.875</v>
+      </c>
+      <c r="BM77">
+        <v>1.875</v>
+      </c>
+      <c r="BN77">
+        <v>1.875</v>
+      </c>
+      <c r="BO77">
+        <v>1.875</v>
+      </c>
+      <c r="BP77">
+        <v>1.875</v>
+      </c>
+      <c r="BQ77">
+        <v>1.875</v>
+      </c>
+      <c r="BR77">
+        <v>1.875</v>
+      </c>
+      <c r="BS77">
+        <v>1.875</v>
+      </c>
+      <c r="BT77">
+        <v>1.875</v>
+      </c>
+      <c r="BU77">
+        <v>1.875</v>
+      </c>
+      <c r="BV77">
+        <v>1.875</v>
+      </c>
+      <c r="BW77">
+        <v>1.875</v>
+      </c>
+      <c r="BX77">
+        <v>1.875</v>
+      </c>
+      <c r="BY77">
+        <v>1.875</v>
+      </c>
+      <c r="BZ77">
+        <v>1.875</v>
+      </c>
+      <c r="CA77">
+        <v>1.875</v>
+      </c>
+      <c r="CB77">
+        <v>1.875</v>
+      </c>
+      <c r="CC77">
+        <v>1.875</v>
+      </c>
+      <c r="CD77">
+        <v>1.875</v>
+      </c>
+      <c r="CE77">
+        <v>1.875</v>
+      </c>
+      <c r="CF77">
+        <v>1.875</v>
+      </c>
+      <c r="CG77">
+        <v>1.875</v>
+      </c>
+      <c r="CH77">
+        <v>1.875</v>
+      </c>
+      <c r="CI77">
+        <v>1.875</v>
+      </c>
+      <c r="CJ77">
+        <v>1.875</v>
+      </c>
+      <c r="CK77">
+        <v>1.875</v>
+      </c>
+      <c r="CL77">
+        <v>1.875</v>
+      </c>
+      <c r="CM77">
+        <v>1.875</v>
+      </c>
+      <c r="CN77">
+        <v>1.875</v>
+      </c>
+      <c r="CO77">
+        <v>1.875</v>
+      </c>
+      <c r="CP77">
+        <v>1.875</v>
+      </c>
+      <c r="CQ77">
+        <v>1.875</v>
+      </c>
+      <c r="CR77">
+        <v>1.875</v>
+      </c>
+      <c r="CS77">
+        <v>1.875</v>
+      </c>
+      <c r="CT77">
+        <v>1.875</v>
+      </c>
+      <c r="CU77">
+        <v>1.875</v>
+      </c>
+      <c r="CV77">
+        <v>1.875</v>
+      </c>
+      <c r="CW77">
+        <v>1.875</v>
+      </c>
+    </row>
+    <row r="81" spans="2:101">
+      <c r="B81">
+        <v>0.625</v>
+      </c>
+      <c r="C81">
+        <v>0.625</v>
+      </c>
+      <c r="D81">
+        <v>0.625</v>
+      </c>
+      <c r="E81">
+        <v>0.625</v>
+      </c>
+      <c r="F81">
+        <v>0.625</v>
+      </c>
+      <c r="G81">
+        <v>0.625</v>
+      </c>
+      <c r="H81">
+        <v>0.625</v>
+      </c>
+      <c r="I81">
+        <v>0.625</v>
+      </c>
+      <c r="J81">
+        <v>0.625</v>
+      </c>
+      <c r="K81">
+        <v>0.625</v>
+      </c>
+      <c r="L81">
+        <v>0.625</v>
+      </c>
+      <c r="M81">
+        <v>0.625</v>
+      </c>
+      <c r="N81">
+        <v>0.625</v>
+      </c>
+      <c r="O81">
+        <v>0.625</v>
+      </c>
+      <c r="P81">
+        <v>0.625</v>
+      </c>
+      <c r="Q81">
+        <v>0.625</v>
+      </c>
+      <c r="R81">
+        <v>0.625</v>
+      </c>
+      <c r="S81">
+        <v>0.625</v>
+      </c>
+      <c r="T81">
+        <v>0.625</v>
+      </c>
+      <c r="U81">
+        <v>0.625</v>
+      </c>
+      <c r="V81">
+        <v>0.625</v>
+      </c>
+      <c r="W81">
+        <v>0.625</v>
+      </c>
+      <c r="X81">
+        <v>0.625</v>
+      </c>
+      <c r="Y81">
+        <v>0.625</v>
+      </c>
+      <c r="Z81">
+        <v>0.625</v>
+      </c>
+      <c r="AA81">
+        <v>0.625</v>
+      </c>
+      <c r="AB81">
+        <v>0.625</v>
+      </c>
+      <c r="AC81">
+        <v>0.625</v>
+      </c>
+      <c r="AD81">
+        <v>0.625</v>
+      </c>
+      <c r="AE81">
+        <v>0.625</v>
+      </c>
+      <c r="AF81">
+        <v>0.625</v>
+      </c>
+      <c r="AG81">
+        <v>0.625</v>
+      </c>
+      <c r="AH81">
+        <v>0.625</v>
+      </c>
+      <c r="AI81">
+        <v>0.625</v>
+      </c>
+      <c r="AJ81">
+        <v>0.625</v>
+      </c>
+      <c r="AK81">
+        <v>0.625</v>
+      </c>
+      <c r="AL81">
+        <v>0.625</v>
+      </c>
+      <c r="AM81">
+        <v>0.625</v>
+      </c>
+      <c r="AN81">
+        <v>0.625</v>
+      </c>
+      <c r="AO81">
+        <v>0.625</v>
+      </c>
+      <c r="AP81">
+        <v>0.625</v>
+      </c>
+      <c r="AQ81">
+        <v>0.625</v>
+      </c>
+      <c r="AR81">
+        <v>0.625</v>
+      </c>
+      <c r="AS81">
+        <v>0.625</v>
+      </c>
+      <c r="AT81">
+        <v>0.625</v>
+      </c>
+      <c r="AU81">
+        <v>0.625</v>
+      </c>
+      <c r="AV81">
+        <v>0.625</v>
+      </c>
+      <c r="AW81">
+        <v>0.625</v>
+      </c>
+      <c r="AX81">
+        <v>0.625</v>
+      </c>
+      <c r="AY81">
+        <v>0.625</v>
+      </c>
+      <c r="AZ81">
+        <v>0.625</v>
+      </c>
+      <c r="BA81">
+        <v>0.625</v>
+      </c>
+      <c r="BB81">
+        <v>0.625</v>
+      </c>
+      <c r="BC81">
+        <v>0.625</v>
+      </c>
+      <c r="BD81">
+        <v>0.625</v>
+      </c>
+      <c r="BE81">
+        <v>0.625</v>
+      </c>
+      <c r="BF81">
+        <v>0.625</v>
+      </c>
+      <c r="BG81">
+        <v>0.625</v>
+      </c>
+      <c r="BH81">
+        <v>0.625</v>
+      </c>
+      <c r="BI81">
+        <v>0.625</v>
+      </c>
+      <c r="BJ81">
+        <v>0.625</v>
+      </c>
+      <c r="BK81">
+        <v>0.625</v>
+      </c>
+      <c r="BL81">
+        <v>0.625</v>
+      </c>
+      <c r="BM81">
+        <v>0.625</v>
+      </c>
+      <c r="BN81">
+        <v>0.625</v>
+      </c>
+      <c r="BO81">
+        <v>0.625</v>
+      </c>
+      <c r="BP81">
+        <v>0.625</v>
+      </c>
+      <c r="BQ81">
+        <v>0.625</v>
+      </c>
+      <c r="BR81">
+        <v>0.625</v>
+      </c>
+      <c r="BS81">
+        <v>0.625</v>
+      </c>
+      <c r="BT81">
+        <v>0.625</v>
+      </c>
+      <c r="BU81">
+        <v>0.625</v>
+      </c>
+      <c r="BV81">
+        <v>0.625</v>
+      </c>
+      <c r="BW81">
+        <v>0.625</v>
+      </c>
+      <c r="BX81">
+        <v>0.625</v>
+      </c>
+      <c r="BY81">
+        <v>0.625</v>
+      </c>
+      <c r="BZ81">
+        <v>0.625</v>
+      </c>
+      <c r="CA81">
+        <v>0.625</v>
+      </c>
+      <c r="CB81">
+        <v>0.625</v>
+      </c>
+      <c r="CC81">
+        <v>0.625</v>
+      </c>
+      <c r="CD81">
+        <v>0.625</v>
+      </c>
+      <c r="CE81">
+        <v>0.625</v>
+      </c>
+      <c r="CF81">
+        <v>0.625</v>
+      </c>
+      <c r="CG81">
+        <v>0.625</v>
+      </c>
+      <c r="CH81">
+        <v>0.625</v>
+      </c>
+      <c r="CI81">
+        <v>0.625</v>
+      </c>
+      <c r="CJ81">
+        <v>0.625</v>
+      </c>
+      <c r="CK81">
+        <v>0.625</v>
+      </c>
+      <c r="CL81">
+        <v>0.625</v>
+      </c>
+      <c r="CM81">
+        <v>0.625</v>
+      </c>
+      <c r="CN81">
+        <v>0.625</v>
+      </c>
+      <c r="CO81">
+        <v>0.625</v>
+      </c>
+      <c r="CP81">
+        <v>0.625</v>
+      </c>
+      <c r="CQ81">
+        <v>0.625</v>
+      </c>
+      <c r="CR81">
+        <v>0.625</v>
+      </c>
+      <c r="CS81">
+        <v>0.625</v>
+      </c>
+      <c r="CT81">
+        <v>0.625</v>
+      </c>
+      <c r="CU81">
+        <v>0.625</v>
+      </c>
+      <c r="CV81">
+        <v>0.625</v>
+      </c>
+      <c r="CW81">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="85" spans="2:101">
+      <c r="B85">
+        <v>0.9375</v>
+      </c>
+      <c r="C85">
+        <v>0.9375</v>
+      </c>
+      <c r="D85">
+        <v>0.9375</v>
+      </c>
+      <c r="E85">
+        <v>0.9375</v>
+      </c>
+      <c r="F85">
+        <v>0.9375</v>
+      </c>
+      <c r="G85">
+        <v>0.9375</v>
+      </c>
+      <c r="H85">
+        <v>0.9375</v>
+      </c>
+      <c r="I85">
+        <v>0.9375</v>
+      </c>
+      <c r="J85">
+        <v>0.9375</v>
+      </c>
+      <c r="K85">
+        <v>0.9375</v>
+      </c>
+      <c r="L85">
+        <v>0.9375</v>
+      </c>
+      <c r="M85">
+        <v>0.9375</v>
+      </c>
+      <c r="N85">
+        <v>0.9375</v>
+      </c>
+      <c r="O85">
+        <v>0.9375</v>
+      </c>
+      <c r="P85">
+        <v>0.9375</v>
+      </c>
+      <c r="Q85">
+        <v>0.9375</v>
+      </c>
+      <c r="R85">
+        <v>0.9375</v>
+      </c>
+      <c r="S85">
+        <v>0.9375</v>
+      </c>
+      <c r="T85">
+        <v>0.9375</v>
+      </c>
+      <c r="U85">
+        <v>0.9375</v>
+      </c>
+      <c r="V85">
+        <v>0.9375</v>
+      </c>
+      <c r="W85">
+        <v>0.9375</v>
+      </c>
+      <c r="X85">
+        <v>0.9375</v>
+      </c>
+      <c r="Y85">
+        <v>0.9375</v>
+      </c>
+      <c r="Z85">
+        <v>0.9375</v>
+      </c>
+      <c r="AA85">
+        <v>0.9375</v>
+      </c>
+      <c r="AB85">
+        <v>0.9375</v>
+      </c>
+      <c r="AC85">
+        <v>0.9375</v>
+      </c>
+      <c r="AD85">
+        <v>0.9375</v>
+      </c>
+      <c r="AE85">
+        <v>0.9375</v>
+      </c>
+      <c r="AF85">
+        <v>0.9375</v>
+      </c>
+      <c r="AG85">
+        <v>0.9375</v>
+      </c>
+      <c r="AH85">
+        <v>0.9375</v>
+      </c>
+      <c r="AI85">
+        <v>0.9375</v>
+      </c>
+      <c r="AJ85">
+        <v>0.9375</v>
+      </c>
+      <c r="AK85">
+        <v>0.9375</v>
+      </c>
+      <c r="AL85">
+        <v>0.9375</v>
+      </c>
+      <c r="AM85">
+        <v>0.9375</v>
+      </c>
+      <c r="AN85">
+        <v>0.9375</v>
+      </c>
+      <c r="AO85">
+        <v>0.9375</v>
+      </c>
+      <c r="AP85">
+        <v>0.9375</v>
+      </c>
+      <c r="AQ85">
+        <v>0.9375</v>
+      </c>
+      <c r="AR85">
+        <v>0.9375</v>
+      </c>
+      <c r="AS85">
+        <v>0.9375</v>
+      </c>
+      <c r="AT85">
+        <v>0.9375</v>
+      </c>
+      <c r="AU85">
+        <v>0.9375</v>
+      </c>
+      <c r="AV85">
+        <v>0.9375</v>
+      </c>
+      <c r="AW85">
+        <v>0.9375</v>
+      </c>
+      <c r="AX85">
+        <v>0.9375</v>
+      </c>
+      <c r="AY85">
+        <v>0.9375</v>
+      </c>
+      <c r="AZ85">
+        <v>0.9375</v>
+      </c>
+      <c r="BA85">
+        <v>0.9375</v>
+      </c>
+      <c r="BB85">
+        <v>0.9375</v>
+      </c>
+      <c r="BC85">
+        <v>0.9375</v>
+      </c>
+      <c r="BD85">
+        <v>0.9375</v>
+      </c>
+      <c r="BE85">
+        <v>0.9375</v>
+      </c>
+      <c r="BF85">
+        <v>0.9375</v>
+      </c>
+      <c r="BG85">
+        <v>0.9375</v>
+      </c>
+      <c r="BH85">
+        <v>0.9375</v>
+      </c>
+      <c r="BI85">
+        <v>0.9375</v>
+      </c>
+      <c r="BJ85">
+        <v>0.9375</v>
+      </c>
+      <c r="BK85">
+        <v>0.9375</v>
+      </c>
+      <c r="BL85">
+        <v>0.9375</v>
+      </c>
+      <c r="BM85">
+        <v>0.9375</v>
+      </c>
+      <c r="BN85">
+        <v>0.9375</v>
+      </c>
+      <c r="BO85">
+        <v>0.9375</v>
+      </c>
+      <c r="BP85">
+        <v>0.9375</v>
+      </c>
+      <c r="BQ85">
+        <v>0.9375</v>
+      </c>
+      <c r="BR85">
+        <v>0.9375</v>
+      </c>
+      <c r="BS85">
+        <v>0.9375</v>
+      </c>
+      <c r="BT85">
+        <v>0.9375</v>
+      </c>
+      <c r="BU85">
+        <v>0.9375</v>
+      </c>
+      <c r="BV85">
+        <v>0.9375</v>
+      </c>
+      <c r="BW85">
+        <v>0.9375</v>
+      </c>
+      <c r="BX85">
+        <v>0.9375</v>
+      </c>
+      <c r="BY85">
+        <v>0.9375</v>
+      </c>
+      <c r="BZ85">
+        <v>0.9375</v>
+      </c>
+      <c r="CA85">
+        <v>0.9375</v>
+      </c>
+      <c r="CB85">
+        <v>0.9375</v>
+      </c>
+      <c r="CC85">
+        <v>0.9375</v>
+      </c>
+      <c r="CD85">
+        <v>0.9375</v>
+      </c>
+      <c r="CE85">
+        <v>0.9375</v>
+      </c>
+      <c r="CF85">
+        <v>0.9375</v>
+      </c>
+      <c r="CG85">
+        <v>0.9375</v>
+      </c>
+      <c r="CH85">
+        <v>0.9375</v>
+      </c>
+      <c r="CI85">
+        <v>0.9375</v>
+      </c>
+      <c r="CJ85">
+        <v>0.9375</v>
+      </c>
+      <c r="CK85">
+        <v>0.9375</v>
+      </c>
+      <c r="CL85">
+        <v>0.9375</v>
+      </c>
+      <c r="CM85">
+        <v>0.9375</v>
+      </c>
+      <c r="CN85">
+        <v>0.9375</v>
+      </c>
+      <c r="CO85">
+        <v>0.9375</v>
+      </c>
+      <c r="CP85">
+        <v>0.9375</v>
+      </c>
+      <c r="CQ85">
+        <v>0.9375</v>
+      </c>
+      <c r="CR85">
+        <v>0.9375</v>
+      </c>
+      <c r="CS85">
+        <v>0.9375</v>
+      </c>
+      <c r="CT85">
+        <v>0.9375</v>
+      </c>
+      <c r="CU85">
+        <v>0.9375</v>
+      </c>
+      <c r="CV85">
+        <v>0.9375</v>
+      </c>
+      <c r="CW85">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="89" spans="2:101">
+      <c r="B89">
+        <v>2.1875</v>
+      </c>
+      <c r="C89">
+        <v>2.1875</v>
+      </c>
+      <c r="D89">
+        <v>2.1875</v>
+      </c>
+      <c r="E89">
+        <v>2.1875</v>
+      </c>
+      <c r="F89">
+        <v>2.1875</v>
+      </c>
+      <c r="G89">
+        <v>2.1875</v>
+      </c>
+      <c r="H89">
+        <v>2.1875</v>
+      </c>
+      <c r="I89">
+        <v>2.1875</v>
+      </c>
+      <c r="J89">
+        <v>2.1875</v>
+      </c>
+      <c r="K89">
+        <v>2.1875</v>
+      </c>
+      <c r="L89">
+        <v>2.1875</v>
+      </c>
+      <c r="M89">
+        <v>2.1875</v>
+      </c>
+      <c r="N89">
+        <v>2.1875</v>
+      </c>
+      <c r="O89">
+        <v>2.1875</v>
+      </c>
+      <c r="P89">
+        <v>2.1875</v>
+      </c>
+      <c r="Q89">
+        <v>2.1875</v>
+      </c>
+      <c r="R89">
+        <v>2.1875</v>
+      </c>
+      <c r="S89">
+        <v>2.1875</v>
+      </c>
+      <c r="T89">
+        <v>2.1875</v>
+      </c>
+      <c r="U89">
+        <v>2.1875</v>
+      </c>
+      <c r="V89">
+        <v>2.1875</v>
+      </c>
+      <c r="W89">
+        <v>2.1875</v>
+      </c>
+      <c r="X89">
+        <v>2.1875</v>
+      </c>
+      <c r="Y89">
+        <v>2.1875</v>
+      </c>
+      <c r="Z89">
+        <v>2.1875</v>
+      </c>
+      <c r="AA89">
+        <v>2.1875</v>
+      </c>
+      <c r="AB89">
+        <v>2.1875</v>
+      </c>
+      <c r="AC89">
+        <v>2.1875</v>
+      </c>
+      <c r="AD89">
+        <v>2.1875</v>
+      </c>
+      <c r="AE89">
+        <v>2.1875</v>
+      </c>
+      <c r="AF89">
+        <v>2.1875</v>
+      </c>
+      <c r="AG89">
+        <v>2.1875</v>
+      </c>
+      <c r="AH89">
+        <v>2.1875</v>
+      </c>
+      <c r="AI89">
+        <v>2.1875</v>
+      </c>
+      <c r="AJ89">
+        <v>2.1875</v>
+      </c>
+      <c r="AK89">
+        <v>2.1875</v>
+      </c>
+      <c r="AL89">
+        <v>2.1875</v>
+      </c>
+      <c r="AM89">
+        <v>2.1875</v>
+      </c>
+      <c r="AN89">
+        <v>2.1875</v>
+      </c>
+      <c r="AO89">
+        <v>2.1875</v>
+      </c>
+      <c r="AP89">
+        <v>2.1875</v>
+      </c>
+      <c r="AQ89">
+        <v>2.1875</v>
+      </c>
+      <c r="AR89">
+        <v>2.1875</v>
+      </c>
+      <c r="AS89">
+        <v>2.1875</v>
+      </c>
+      <c r="AT89">
+        <v>2.1875</v>
+      </c>
+      <c r="AU89">
+        <v>2.1875</v>
+      </c>
+      <c r="AV89">
+        <v>2.1875</v>
+      </c>
+      <c r="AW89">
+        <v>2.1875</v>
+      </c>
+      <c r="AX89">
+        <v>2.1875</v>
+      </c>
+      <c r="AY89">
+        <v>2.1875</v>
+      </c>
+      <c r="AZ89">
+        <v>2.1875</v>
+      </c>
+      <c r="BA89">
+        <v>2.1875</v>
+      </c>
+      <c r="BB89">
+        <v>2.1875</v>
+      </c>
+      <c r="BC89">
+        <v>2.1875</v>
+      </c>
+      <c r="BD89">
+        <v>2.1875</v>
+      </c>
+      <c r="BE89">
+        <v>2.1875</v>
+      </c>
+      <c r="BF89">
+        <v>2.1875</v>
+      </c>
+      <c r="BG89">
+        <v>2.1875</v>
+      </c>
+      <c r="BH89">
+        <v>2.1875</v>
+      </c>
+      <c r="BI89">
+        <v>2.1875</v>
+      </c>
+      <c r="BJ89">
+        <v>2.1875</v>
+      </c>
+      <c r="BK89">
+        <v>2.1875</v>
+      </c>
+      <c r="BL89">
+        <v>2.1875</v>
+      </c>
+      <c r="BM89">
+        <v>2.1875</v>
+      </c>
+      <c r="BN89">
+        <v>2.1875</v>
+      </c>
+      <c r="BO89">
+        <v>2.1875</v>
+      </c>
+      <c r="BP89">
+        <v>2.1875</v>
+      </c>
+      <c r="BQ89">
+        <v>2.1875</v>
+      </c>
+      <c r="BR89">
+        <v>2.1875</v>
+      </c>
+      <c r="BS89">
+        <v>2.1875</v>
+      </c>
+      <c r="BT89">
+        <v>2.1875</v>
+      </c>
+      <c r="BU89">
+        <v>2.1875</v>
+      </c>
+      <c r="BV89">
+        <v>2.1875</v>
+      </c>
+      <c r="BW89">
+        <v>2.1875</v>
+      </c>
+      <c r="BX89">
+        <v>2.1875</v>
+      </c>
+      <c r="BY89">
+        <v>2.1875</v>
+      </c>
+      <c r="BZ89">
+        <v>2.1875</v>
+      </c>
+      <c r="CA89">
+        <v>2.1875</v>
+      </c>
+      <c r="CB89">
+        <v>2.1875</v>
+      </c>
+      <c r="CC89">
+        <v>2.1875</v>
+      </c>
+      <c r="CD89">
+        <v>2.1875</v>
+      </c>
+      <c r="CE89">
+        <v>2.1875</v>
+      </c>
+      <c r="CF89">
+        <v>2.1875</v>
+      </c>
+      <c r="CG89">
+        <v>2.1875</v>
+      </c>
+      <c r="CH89">
+        <v>2.1875</v>
+      </c>
+      <c r="CI89">
+        <v>2.1875</v>
+      </c>
+      <c r="CJ89">
+        <v>2.1875</v>
+      </c>
+      <c r="CK89">
+        <v>2.1875</v>
+      </c>
+      <c r="CL89">
+        <v>2.1875</v>
+      </c>
+      <c r="CM89">
+        <v>2.1875</v>
+      </c>
+      <c r="CN89">
+        <v>2.1875</v>
+      </c>
+      <c r="CO89">
+        <v>2.1875</v>
+      </c>
+      <c r="CP89">
+        <v>2.1875</v>
+      </c>
+      <c r="CQ89">
+        <v>2.1875</v>
+      </c>
+      <c r="CR89">
+        <v>2.1875</v>
+      </c>
+      <c r="CS89">
+        <v>2.1875</v>
+      </c>
+      <c r="CT89">
+        <v>2.1875</v>
+      </c>
+      <c r="CU89">
+        <v>2.1875</v>
+      </c>
+      <c r="CV89">
+        <v>2.1875</v>
+      </c>
+      <c r="CW89">
+        <v>2.1875</v>
+      </c>
+    </row>
+    <row r="93" spans="2:101">
+      <c r="B93">
+        <v>1.875</v>
+      </c>
+      <c r="C93">
+        <v>1.875</v>
+      </c>
+      <c r="D93">
+        <v>1.875</v>
+      </c>
+      <c r="E93">
+        <v>1.875</v>
+      </c>
+      <c r="F93">
+        <v>1.875</v>
+      </c>
+      <c r="G93">
+        <v>1.875</v>
+      </c>
+      <c r="H93">
+        <v>1.875</v>
+      </c>
+      <c r="I93">
+        <v>1.875</v>
+      </c>
+      <c r="J93">
+        <v>1.875</v>
+      </c>
+      <c r="K93">
+        <v>1.875</v>
+      </c>
+      <c r="L93">
+        <v>1.875</v>
+      </c>
+      <c r="M93">
+        <v>1.875</v>
+      </c>
+      <c r="N93">
+        <v>1.875</v>
+      </c>
+      <c r="O93">
+        <v>1.875</v>
+      </c>
+      <c r="P93">
+        <v>1.875</v>
+      </c>
+      <c r="Q93">
+        <v>1.875</v>
+      </c>
+      <c r="R93">
+        <v>1.875</v>
+      </c>
+      <c r="S93">
+        <v>1.875</v>
+      </c>
+      <c r="T93">
+        <v>1.875</v>
+      </c>
+      <c r="U93">
+        <v>1.875</v>
+      </c>
+      <c r="V93">
+        <v>1.875</v>
+      </c>
+      <c r="W93">
+        <v>1.875</v>
+      </c>
+      <c r="X93">
+        <v>1.875</v>
+      </c>
+      <c r="Y93">
+        <v>1.875</v>
+      </c>
+      <c r="Z93">
+        <v>1.875</v>
+      </c>
+      <c r="AA93">
+        <v>1.875</v>
+      </c>
+      <c r="AB93">
+        <v>1.875</v>
+      </c>
+      <c r="AC93">
+        <v>1.875</v>
+      </c>
+      <c r="AD93">
+        <v>1.875</v>
+      </c>
+      <c r="AE93">
+        <v>1.875</v>
+      </c>
+      <c r="AF93">
+        <v>1.875</v>
+      </c>
+      <c r="AG93">
+        <v>1.875</v>
+      </c>
+      <c r="AH93">
+        <v>1.875</v>
+      </c>
+      <c r="AI93">
+        <v>1.875</v>
+      </c>
+      <c r="AJ93">
+        <v>1.875</v>
+      </c>
+      <c r="AK93">
+        <v>1.875</v>
+      </c>
+      <c r="AL93">
+        <v>1.875</v>
+      </c>
+      <c r="AM93">
+        <v>1.875</v>
+      </c>
+      <c r="AN93">
+        <v>1.875</v>
+      </c>
+      <c r="AO93">
+        <v>1.875</v>
+      </c>
+      <c r="AP93">
+        <v>1.875</v>
+      </c>
+      <c r="AQ93">
+        <v>1.875</v>
+      </c>
+      <c r="AR93">
+        <v>1.875</v>
+      </c>
+      <c r="AS93">
+        <v>1.875</v>
+      </c>
+      <c r="AT93">
+        <v>1.875</v>
+      </c>
+      <c r="AU93">
+        <v>1.875</v>
+      </c>
+      <c r="AV93">
+        <v>1.875</v>
+      </c>
+      <c r="AW93">
+        <v>1.875</v>
+      </c>
+      <c r="AX93">
+        <v>1.875</v>
+      </c>
+      <c r="AY93">
+        <v>1.875</v>
+      </c>
+      <c r="AZ93">
+        <v>1.875</v>
+      </c>
+      <c r="BA93">
+        <v>1.875</v>
+      </c>
+      <c r="BB93">
+        <v>1.875</v>
+      </c>
+      <c r="BC93">
+        <v>1.875</v>
+      </c>
+      <c r="BD93">
+        <v>1.875</v>
+      </c>
+      <c r="BE93">
+        <v>1.875</v>
+      </c>
+      <c r="BF93">
+        <v>1.875</v>
+      </c>
+      <c r="BG93">
+        <v>1.875</v>
+      </c>
+      <c r="BH93">
+        <v>1.875</v>
+      </c>
+      <c r="BI93">
+        <v>1.875</v>
+      </c>
+      <c r="BJ93">
+        <v>1.875</v>
+      </c>
+      <c r="BK93">
+        <v>1.875</v>
+      </c>
+      <c r="BL93">
+        <v>1.875</v>
+      </c>
+      <c r="BM93">
+        <v>1.875</v>
+      </c>
+      <c r="BN93">
+        <v>1.875</v>
+      </c>
+      <c r="BO93">
+        <v>1.875</v>
+      </c>
+      <c r="BP93">
+        <v>1.875</v>
+      </c>
+      <c r="BQ93">
+        <v>1.875</v>
+      </c>
+      <c r="BR93">
+        <v>1.875</v>
+      </c>
+      <c r="BS93">
+        <v>1.875</v>
+      </c>
+      <c r="BT93">
+        <v>1.875</v>
+      </c>
+      <c r="BU93">
+        <v>1.875</v>
+      </c>
+      <c r="BV93">
+        <v>1.875</v>
+      </c>
+      <c r="BW93">
+        <v>1.875</v>
+      </c>
+      <c r="BX93">
+        <v>1.875</v>
+      </c>
+      <c r="BY93">
+        <v>1.875</v>
+      </c>
+      <c r="BZ93">
+        <v>1.875</v>
+      </c>
+      <c r="CA93">
+        <v>1.875</v>
+      </c>
+      <c r="CB93">
+        <v>1.875</v>
+      </c>
+      <c r="CC93">
+        <v>1.875</v>
+      </c>
+      <c r="CD93">
+        <v>1.875</v>
+      </c>
+      <c r="CE93">
+        <v>1.875</v>
+      </c>
+      <c r="CF93">
+        <v>1.875</v>
+      </c>
+      <c r="CG93">
+        <v>1.875</v>
+      </c>
+      <c r="CH93">
+        <v>1.875</v>
+      </c>
+      <c r="CI93">
+        <v>1.875</v>
+      </c>
+      <c r="CJ93">
+        <v>1.875</v>
+      </c>
+      <c r="CK93">
+        <v>1.875</v>
+      </c>
+      <c r="CL93">
+        <v>1.875</v>
+      </c>
+      <c r="CM93">
+        <v>1.875</v>
+      </c>
+      <c r="CN93">
+        <v>1.875</v>
+      </c>
+      <c r="CO93">
+        <v>1.875</v>
+      </c>
+      <c r="CP93">
+        <v>1.875</v>
+      </c>
+      <c r="CQ93">
+        <v>1.875</v>
+      </c>
+      <c r="CR93">
+        <v>1.875</v>
+      </c>
+      <c r="CS93">
+        <v>1.875</v>
+      </c>
+      <c r="CT93">
+        <v>1.875</v>
+      </c>
+      <c r="CU93">
+        <v>1.875</v>
+      </c>
+      <c r="CV93">
+        <v>1.875</v>
+      </c>
+      <c r="CW93">
+        <v>1.875</v>
       </c>
     </row>
   </sheetData>

--- a/codes/test_shell_output/testPRON_New_2.xlsx
+++ b/codes/test_shell_output/testPRON_New_2.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B5:CW93"/>
+  <dimension ref="B5:CW81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -348,6948 +348,6042 @@
   <sheetData>
     <row r="5" spans="2:101">
       <c r="B5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="D5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="E5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="F5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="G5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="H5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="I5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="J5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="K5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="M5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="N5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="O5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="P5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="Q5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="R5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="S5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="T5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="U5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="V5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="W5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="X5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="Y5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="Z5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AA5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AB5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AC5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AD5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AE5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AF5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AG5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AH5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AI5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AJ5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AK5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AL5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AM5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AN5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AO5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AP5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AQ5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AR5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AS5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AT5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AU5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AV5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AW5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AX5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AY5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AZ5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BA5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BB5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BC5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BD5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BE5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BF5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BG5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BH5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BI5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BJ5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BK5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BL5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BM5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BN5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BO5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BP5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BQ5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BR5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BS5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BT5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BU5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BV5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BW5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BX5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BY5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BZ5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CA5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CB5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CC5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CD5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CE5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CF5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CG5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CH5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CI5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CJ5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CK5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CL5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CM5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CN5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CO5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CP5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CQ5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CR5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CS5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CT5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CU5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CV5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CW5">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
     </row>
     <row r="9" spans="2:101">
       <c r="B9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="C9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="D9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="E9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="F9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="G9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="H9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="I9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="J9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="K9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="L9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="M9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="N9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="O9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="P9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="Q9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="R9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="S9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="T9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="U9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="V9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="W9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="X9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="Y9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="Z9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="AA9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="AB9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="AC9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="AD9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="AE9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="AF9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="AG9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="AH9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="AI9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="AJ9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="AK9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="AL9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="AM9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="AN9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="AO9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="AP9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="AQ9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="AR9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="AS9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="AT9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="AU9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="AV9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="AW9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="AX9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="AY9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="AZ9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="BA9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="BB9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="BC9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="BD9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="BE9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="BF9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="BG9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="BH9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="BI9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="BJ9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="BK9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="BL9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="BM9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="BN9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="BO9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="BP9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="BQ9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="BR9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="BS9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="BT9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="BU9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="BV9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="BW9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="BX9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="BY9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="BZ9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="CA9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="CB9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="CC9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="CD9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="CE9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="CF9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="CG9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="CH9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="CI9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="CJ9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="CK9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="CL9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="CM9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="CN9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="CO9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="CP9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="CQ9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="CR9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="CS9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="CT9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="CU9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="CV9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="CW9">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
     </row>
     <row r="13" spans="2:101">
       <c r="B13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="C13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="D13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="E13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="F13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="G13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="H13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="I13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="J13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="K13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="L13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="M13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="N13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="O13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="P13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="Q13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="R13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="S13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="T13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="U13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="V13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="W13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="X13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="Y13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="Z13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="AA13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="AB13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="AC13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="AD13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="AE13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="AF13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="AG13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="AH13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="AI13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="AJ13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="AK13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="AL13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="AM13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="AN13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="AO13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="AP13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="AQ13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="AR13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="AS13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="AT13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="AU13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="AV13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="AW13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="AX13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="AY13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="AZ13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="BA13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="BB13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="BC13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="BD13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="BE13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="BF13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="BG13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="BH13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="BI13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="BJ13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="BK13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="BL13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="BM13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="BN13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="BO13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="BP13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="BQ13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="BR13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="BS13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="BT13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="BU13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="BV13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="BW13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="BX13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="BY13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="BZ13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="CA13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="CB13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="CC13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="CD13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="CE13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="CF13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="CG13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="CH13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="CI13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="CJ13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="CK13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="CL13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="CM13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="CN13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="CO13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="CP13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="CQ13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="CR13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="CS13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="CT13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="CU13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="CV13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="CW13">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
     </row>
     <row r="17" spans="2:101">
       <c r="B17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="D17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="E17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="F17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="G17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="H17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="I17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="J17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="K17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="M17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="N17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="O17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="P17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="Q17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="R17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="S17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="T17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="U17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="V17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="W17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="X17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="Y17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="Z17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AA17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AB17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AC17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AD17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AE17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AF17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AG17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AH17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AI17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AJ17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AK17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AL17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AM17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AN17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AO17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AP17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AQ17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AR17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AS17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AT17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AU17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AV17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AW17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AX17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AY17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AZ17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BA17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BB17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BC17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BD17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BE17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BF17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BG17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BH17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BI17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BJ17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BK17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BL17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BM17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BN17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BO17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BP17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BQ17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BR17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BS17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BT17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BU17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BV17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BW17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BX17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BY17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BZ17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CA17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CB17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CC17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CD17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CE17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CF17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CG17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CH17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CI17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CJ17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CK17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CL17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CM17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CN17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CO17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CP17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CQ17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CR17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CS17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CT17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CU17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CV17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CW17">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
     </row>
     <row r="21" spans="2:101">
       <c r="B21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="C21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="D21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="E21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="F21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="G21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="H21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="I21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="J21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="K21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="L21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="M21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="N21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="O21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="P21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="Q21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="R21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="S21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="T21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="U21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="V21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="W21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="X21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="Y21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="Z21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AA21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AB21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AC21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AD21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AE21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AF21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AG21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AH21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AI21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AJ21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AK21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AL21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AM21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AN21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AO21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AP21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AQ21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AR21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AS21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AT21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AU21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AV21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AW21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AX21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AY21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AZ21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="BA21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="BB21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="BC21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="BD21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="BE21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="BF21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="BG21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="BH21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="BI21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="BJ21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="BK21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="BL21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="BM21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="BN21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="BO21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="BP21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="BQ21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="BR21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="BS21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="BT21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="BU21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="BV21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="BW21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="BX21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="BY21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="BZ21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="CA21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="CB21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="CC21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="CD21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="CE21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="CF21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="CG21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="CH21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="CI21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="CJ21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="CK21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="CL21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="CM21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="CN21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="CO21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="CP21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="CQ21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="CR21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="CS21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="CT21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="CU21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="CV21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="CW21">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
     </row>
     <row r="25" spans="2:101">
       <c r="B25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="D25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="E25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="F25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="G25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="H25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="I25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="J25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="K25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="M25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="N25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="O25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="P25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="Q25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="R25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="S25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="T25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="U25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="V25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="W25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="X25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="Y25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="Z25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AA25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AB25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AC25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AD25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AE25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AF25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AG25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AH25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AI25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AJ25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AK25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AL25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AM25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AN25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AO25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AP25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AQ25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AR25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AS25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AT25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AU25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AV25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AW25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AX25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AY25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AZ25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BA25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BB25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BC25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BD25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BE25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BF25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BG25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BH25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BI25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BJ25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BK25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BL25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BM25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BN25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BO25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BP25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BQ25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BR25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BS25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BT25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BU25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BV25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BW25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BX25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BY25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BZ25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CA25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CB25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CC25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CD25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CE25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CF25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CG25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CH25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CI25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CJ25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CK25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CL25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CM25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CN25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CO25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CP25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CQ25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CR25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CS25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CT25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CU25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CV25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CW25">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
     </row>
     <row r="29" spans="2:101">
       <c r="B29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="C29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="D29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="E29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="F29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="G29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="H29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="I29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="J29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="K29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="L29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="M29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="N29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="O29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="P29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="Q29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="R29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="S29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="T29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="U29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="V29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="W29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="X29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="Y29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="Z29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="AA29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="AB29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="AC29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="AD29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="AE29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="AF29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="AG29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="AH29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="AI29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="AJ29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="AK29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="AL29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="AM29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="AN29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="AO29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="AP29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="AQ29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="AR29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="AS29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="AT29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="AU29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="AV29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="AW29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="AX29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="AY29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="AZ29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="BA29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="BB29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="BC29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="BD29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="BE29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="BF29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="BG29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="BH29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="BI29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="BJ29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="BK29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="BL29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="BM29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="BN29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="BO29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="BP29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="BQ29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="BR29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="BS29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="BT29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="BU29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="BV29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="BW29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="BX29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="BY29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="BZ29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="CA29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="CB29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="CC29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="CD29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="CE29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="CF29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="CG29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="CH29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="CI29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="CJ29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="CK29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="CL29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="CM29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="CN29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="CO29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="CP29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="CQ29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="CR29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="CS29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="CT29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="CU29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="CV29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="CW29">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
     </row>
     <row r="33" spans="2:101">
       <c r="B33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="C33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="D33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="E33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="F33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="G33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="H33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="I33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="J33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="K33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="L33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="M33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="N33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="O33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="P33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="Q33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="R33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="S33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="T33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="U33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="V33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="W33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="X33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="Y33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="Z33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="AA33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="AB33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="AC33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="AD33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="AE33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="AF33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="AG33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="AH33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="AI33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="AJ33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="AK33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="AL33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="AM33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="AN33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="AO33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="AP33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="AQ33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="AR33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="AS33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="AT33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="AU33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="AV33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="AW33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="AX33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="AY33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="AZ33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="BA33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="BB33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="BC33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="BD33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="BE33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="BF33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="BG33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="BH33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="BI33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="BJ33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="BK33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="BL33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="BM33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="BN33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="BO33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="BP33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="BQ33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="BR33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="BS33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="BT33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="BU33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="BV33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="BW33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="BX33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="BY33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="BZ33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="CA33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="CB33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="CC33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="CD33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="CE33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="CF33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="CG33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="CH33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="CI33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="CJ33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="CK33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="CL33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="CM33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="CN33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="CO33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="CP33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="CQ33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="CR33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="CS33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="CT33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="CU33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="CV33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="CW33">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
     </row>
     <row r="37" spans="2:101">
       <c r="B37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="C37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="D37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="E37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="F37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="G37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="H37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="I37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="J37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="K37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="L37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="M37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="N37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="O37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="P37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="Q37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="R37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="S37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="T37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="U37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="V37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="W37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="X37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="Y37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="Z37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="AA37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="AB37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="AC37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="AD37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="AE37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="AF37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="AG37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="AH37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="AI37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="AJ37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="AK37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="AL37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="AM37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="AN37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="AO37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="AP37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="AQ37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="AR37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="AS37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="AT37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="AU37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="AV37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="AW37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="AX37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="AY37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="AZ37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="BA37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="BB37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="BC37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="BD37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="BE37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="BF37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="BG37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="BH37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="BI37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="BJ37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="BK37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="BL37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="BM37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="BN37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="BO37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="BP37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="BQ37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="BR37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="BS37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="BT37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="BU37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="BV37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="BW37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="BX37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="BY37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="BZ37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="CA37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="CB37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="CC37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="CD37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="CE37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="CF37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="CG37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="CH37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="CI37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="CJ37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="CK37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="CL37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="CM37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="CN37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="CO37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="CP37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="CQ37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="CR37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="CS37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="CT37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="CU37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="CV37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="CW37">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
     </row>
     <row r="41" spans="2:101">
       <c r="B41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="C41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="D41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="E41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="F41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="G41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="H41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="I41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="J41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="K41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="L41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="M41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="N41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="O41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="P41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="Q41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="R41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="S41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="T41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="U41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="V41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="W41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="X41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="Y41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="Z41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AA41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AB41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AC41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AD41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AE41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AF41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AG41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AH41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AI41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AJ41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AK41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AL41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AM41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AN41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AO41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AP41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AQ41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AR41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AS41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AT41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AU41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AV41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AW41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AX41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AY41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AZ41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BA41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BB41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BC41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BD41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BE41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BF41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BG41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BH41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BI41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BJ41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BK41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BL41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BM41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BN41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BO41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BP41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BQ41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BR41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BS41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BT41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BU41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BV41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BW41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BX41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BY41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BZ41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CA41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CB41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CC41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CD41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CE41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CF41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CG41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CH41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CI41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CJ41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CK41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CL41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CM41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CN41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CO41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CP41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CQ41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CR41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CS41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CT41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CU41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CV41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CW41">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
     </row>
     <row r="45" spans="2:101">
       <c r="B45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="C45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="D45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="E45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="F45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="G45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="H45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="I45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="J45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="K45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="L45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="M45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="N45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="O45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="P45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="Q45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="R45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="S45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="T45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="U45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="V45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="W45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="X45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="Y45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="Z45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AA45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AB45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AC45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AD45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AE45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AF45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AG45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AH45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AI45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AJ45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AK45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AL45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AM45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AN45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AO45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AP45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AQ45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AR45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AS45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AT45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AU45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AV45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AW45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AX45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AY45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AZ45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BA45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BB45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BC45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BD45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BE45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BF45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BG45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BH45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BI45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BJ45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BK45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BL45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BM45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BN45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BO45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BP45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BQ45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BR45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BS45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BT45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BU45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BV45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BW45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BX45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BY45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BZ45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CA45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CB45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CC45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CD45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CE45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CF45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CG45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CH45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CI45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CJ45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CK45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CL45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CM45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CN45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CO45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CP45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CQ45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CR45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CS45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CT45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CU45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CV45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CW45">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
     </row>
     <row r="49" spans="2:101">
       <c r="B49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="C49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="D49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="E49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="F49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="G49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="H49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="I49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="J49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="K49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="L49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="M49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="N49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="O49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="P49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="Q49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="R49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="S49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="T49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="U49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="V49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="W49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="X49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="Y49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="Z49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AA49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AB49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AC49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AD49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AE49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AF49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AG49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AH49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AI49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AJ49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AK49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AL49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AM49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AN49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AO49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AP49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AQ49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AR49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AS49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AT49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AU49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AV49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AW49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AX49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AY49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AZ49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BA49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BB49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BC49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BD49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BE49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BF49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BG49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BH49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BI49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BJ49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BK49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BL49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BM49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BN49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BO49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BP49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BQ49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BR49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BS49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BT49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BU49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BV49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BW49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BX49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BY49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BZ49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CA49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CB49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CC49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CD49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CE49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CF49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CG49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CH49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CI49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CJ49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CK49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CL49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CM49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CN49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CO49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CP49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CQ49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CR49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CS49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CT49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CU49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CV49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CW49">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
     </row>
     <row r="53" spans="2:101">
       <c r="B53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="D53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="E53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="F53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="G53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="H53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="I53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="J53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="K53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="M53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="N53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="O53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="P53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="Q53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="R53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="S53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="T53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="U53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="V53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="W53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="X53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="Y53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="Z53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AA53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AB53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AC53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AD53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AE53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AF53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AG53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AH53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AI53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AJ53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AK53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AL53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AM53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AN53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AO53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AP53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AQ53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AR53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AS53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AT53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AU53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AV53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AW53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AX53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AY53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AZ53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BA53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BB53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BC53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BD53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BE53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BF53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BG53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BH53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BI53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BJ53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BK53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BL53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BM53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BN53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BO53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BP53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BQ53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BR53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BS53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BT53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BU53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BV53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BW53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BX53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BY53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BZ53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CA53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CB53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CC53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CD53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CE53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CF53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CG53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CH53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CI53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CJ53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CK53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CL53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CM53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CN53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CO53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CP53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CQ53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CR53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CS53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CT53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CU53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CV53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CW53">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
     </row>
     <row r="57" spans="2:101">
       <c r="B57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="D57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="E57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="F57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="G57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="H57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="I57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="J57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="K57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="M57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="N57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="O57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="P57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="Q57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="R57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="S57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="T57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="U57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="V57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="W57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="X57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="Y57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="Z57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AA57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AB57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AC57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AD57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AE57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AF57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AG57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AH57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AI57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AJ57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AK57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AL57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AM57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AN57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AO57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AP57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AQ57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AR57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AS57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AT57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AU57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AV57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AW57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AX57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AY57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AZ57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BA57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BB57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BC57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BD57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BE57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BF57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BG57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BH57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BI57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BJ57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BK57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BL57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BM57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BN57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BO57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BP57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BQ57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BR57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BS57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BT57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BU57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BV57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BW57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BX57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BY57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BZ57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CA57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CB57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CC57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CD57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CE57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CF57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CG57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CH57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CI57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CJ57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CK57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CL57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CM57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CN57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CO57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CP57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CQ57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CR57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CS57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CT57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CU57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CV57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CW57">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
     </row>
     <row r="61" spans="2:101">
       <c r="B61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="C61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="D61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="E61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="F61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="G61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="H61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="I61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="J61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="K61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="L61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="M61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="N61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="O61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="P61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="Q61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="R61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="S61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="T61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="U61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="V61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="W61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="X61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="Y61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="Z61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AA61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AB61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AC61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AD61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AE61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AF61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AG61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AH61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AI61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AJ61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AK61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AL61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AM61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AN61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AO61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AP61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AQ61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AR61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AS61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AT61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AU61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AV61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AW61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AX61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AY61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AZ61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BA61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BB61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BC61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BD61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BE61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BF61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BG61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BH61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BI61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BJ61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BK61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BL61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BM61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BN61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BO61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BP61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BQ61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BR61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BS61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BT61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BU61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BV61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BW61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BX61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BY61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BZ61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CA61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CB61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CC61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CD61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CE61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CF61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CG61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CH61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CI61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CJ61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CK61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CL61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CM61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CN61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CO61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CP61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CQ61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CR61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CS61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CT61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CU61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CV61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CW61">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
     </row>
     <row r="65" spans="2:101">
       <c r="B65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="C65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="D65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="E65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="F65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="G65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="H65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="I65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="J65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="K65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="L65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="M65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="N65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="O65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="P65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="Q65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="R65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="S65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="T65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="U65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="V65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="W65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="X65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="Y65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="Z65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AA65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AB65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AC65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AD65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AE65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AF65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AG65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AH65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AI65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AJ65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AK65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AL65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AM65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AN65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AO65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AP65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AQ65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AR65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AS65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AT65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AU65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AV65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AW65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AX65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AY65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AZ65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BA65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BB65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BC65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BD65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BE65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BF65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BG65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BH65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BI65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BJ65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BK65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BL65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BM65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BN65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BO65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BP65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BQ65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BR65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BS65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BT65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BU65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BV65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BW65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BX65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BY65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BZ65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CA65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CB65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CC65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CD65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CE65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CF65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CG65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CH65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CI65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CJ65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CK65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CL65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CM65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CN65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CO65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CP65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CQ65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CR65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CS65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CT65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CU65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CV65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CW65">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
     </row>
     <row r="69" spans="2:101">
       <c r="B69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="D69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="E69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="F69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="G69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="H69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="I69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="J69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="K69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="M69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="N69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="O69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="P69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="Q69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="R69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="S69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="T69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="U69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="V69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="W69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="X69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="Y69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="Z69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AA69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AB69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AC69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AD69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AE69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AF69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AG69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AH69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AI69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AJ69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AK69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AL69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AM69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AN69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AO69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AP69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AQ69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AR69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AS69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AT69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AU69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AV69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AW69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AX69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AY69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AZ69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BA69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BB69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BC69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BD69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BE69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BF69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BG69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BH69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BI69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BJ69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BK69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BL69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BM69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BN69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BO69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BP69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BQ69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BR69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BS69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BT69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BU69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BV69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BW69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BX69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BY69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BZ69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CA69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CB69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CC69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CD69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CE69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CF69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CG69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CH69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CI69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CJ69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CK69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CL69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CM69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CN69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CO69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CP69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CQ69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CR69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CS69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CT69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CU69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CV69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CW69">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
     </row>
     <row r="73" spans="2:101">
       <c r="B73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="C73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="D73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="E73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="F73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="G73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="H73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="I73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="J73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="K73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="L73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="M73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="N73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="O73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="P73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="Q73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="R73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="S73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="T73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="U73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="V73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="W73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="X73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="Y73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="Z73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AA73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AB73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AC73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AD73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AE73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AF73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AG73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AH73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AI73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AJ73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AK73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AL73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AM73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AN73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AO73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AP73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AQ73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AR73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AS73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AT73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AU73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AV73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AW73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AX73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AY73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AZ73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="BA73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="BB73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="BC73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="BD73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="BE73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="BF73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="BG73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="BH73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="BI73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="BJ73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="BK73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="BL73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="BM73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="BN73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="BO73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="BP73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="BQ73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="BR73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="BS73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="BT73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="BU73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="BV73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="BW73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="BX73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="BY73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="BZ73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="CA73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="CB73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="CC73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="CD73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="CE73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="CF73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="CG73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="CH73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="CI73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="CJ73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="CK73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="CL73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="CM73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="CN73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="CO73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="CP73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="CQ73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="CR73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="CS73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="CT73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="CU73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="CV73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="CW73">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
     </row>
     <row r="77" spans="2:101">
       <c r="B77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="C77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="D77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="E77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="F77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="G77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="H77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="I77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="J77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="K77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="L77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="M77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="N77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="O77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="P77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="Q77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="R77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="S77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="T77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="U77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="V77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="W77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="X77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="Y77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="Z77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AA77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AB77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AC77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AD77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AE77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AF77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AG77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AH77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AI77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AJ77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AK77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AL77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AM77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AN77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AO77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AP77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AQ77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AR77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AS77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AT77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AU77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AV77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AW77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AX77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AY77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AZ77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BA77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BB77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BC77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BD77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BE77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BF77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BG77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BH77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BI77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BJ77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BK77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BL77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BM77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BN77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BO77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BP77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BQ77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BR77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BS77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BT77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BU77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BV77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BW77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BX77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BY77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BZ77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CA77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CB77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CC77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CD77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CE77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CF77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CG77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CH77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CI77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CJ77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CK77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CL77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CM77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CN77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CO77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CP77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CQ77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CR77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CS77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CT77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CU77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CV77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CW77">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
     </row>
     <row r="81" spans="2:101">
       <c r="B81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="C81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="D81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="E81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="F81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="G81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="H81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="I81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="J81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="K81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="L81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="M81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="N81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="O81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="P81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="Q81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="R81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="S81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="T81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="U81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="V81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="W81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="X81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="Y81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="Z81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AA81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AB81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AC81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AD81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AE81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AF81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AG81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AH81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AI81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AJ81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AK81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AL81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AM81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AN81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AO81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AP81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AQ81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AR81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AS81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AT81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AU81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AV81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AW81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AX81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AY81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AZ81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BA81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BB81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BC81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BD81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BE81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BF81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BG81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BH81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BI81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BJ81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BK81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BL81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BM81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BN81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BO81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BP81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BQ81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BR81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BS81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BT81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BU81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BV81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BW81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BX81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BY81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BZ81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CA81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CB81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CC81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CD81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CE81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CF81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CG81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CH81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CI81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CJ81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CK81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CL81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CM81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CN81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CO81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CP81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CQ81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CR81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CS81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CT81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CU81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CV81">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CW81">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="85" spans="2:101">
-      <c r="B85">
-        <v>0.9375</v>
-      </c>
-      <c r="C85">
-        <v>0.9375</v>
-      </c>
-      <c r="D85">
-        <v>0.9375</v>
-      </c>
-      <c r="E85">
-        <v>0.9375</v>
-      </c>
-      <c r="F85">
-        <v>0.9375</v>
-      </c>
-      <c r="G85">
-        <v>0.9375</v>
-      </c>
-      <c r="H85">
-        <v>0.9375</v>
-      </c>
-      <c r="I85">
-        <v>0.9375</v>
-      </c>
-      <c r="J85">
-        <v>0.9375</v>
-      </c>
-      <c r="K85">
-        <v>0.9375</v>
-      </c>
-      <c r="L85">
-        <v>0.9375</v>
-      </c>
-      <c r="M85">
-        <v>0.9375</v>
-      </c>
-      <c r="N85">
-        <v>0.9375</v>
-      </c>
-      <c r="O85">
-        <v>0.9375</v>
-      </c>
-      <c r="P85">
-        <v>0.9375</v>
-      </c>
-      <c r="Q85">
-        <v>0.9375</v>
-      </c>
-      <c r="R85">
-        <v>0.9375</v>
-      </c>
-      <c r="S85">
-        <v>0.9375</v>
-      </c>
-      <c r="T85">
-        <v>0.9375</v>
-      </c>
-      <c r="U85">
-        <v>0.9375</v>
-      </c>
-      <c r="V85">
-        <v>0.9375</v>
-      </c>
-      <c r="W85">
-        <v>0.9375</v>
-      </c>
-      <c r="X85">
-        <v>0.9375</v>
-      </c>
-      <c r="Y85">
-        <v>0.9375</v>
-      </c>
-      <c r="Z85">
-        <v>0.9375</v>
-      </c>
-      <c r="AA85">
-        <v>0.9375</v>
-      </c>
-      <c r="AB85">
-        <v>0.9375</v>
-      </c>
-      <c r="AC85">
-        <v>0.9375</v>
-      </c>
-      <c r="AD85">
-        <v>0.9375</v>
-      </c>
-      <c r="AE85">
-        <v>0.9375</v>
-      </c>
-      <c r="AF85">
-        <v>0.9375</v>
-      </c>
-      <c r="AG85">
-        <v>0.9375</v>
-      </c>
-      <c r="AH85">
-        <v>0.9375</v>
-      </c>
-      <c r="AI85">
-        <v>0.9375</v>
-      </c>
-      <c r="AJ85">
-        <v>0.9375</v>
-      </c>
-      <c r="AK85">
-        <v>0.9375</v>
-      </c>
-      <c r="AL85">
-        <v>0.9375</v>
-      </c>
-      <c r="AM85">
-        <v>0.9375</v>
-      </c>
-      <c r="AN85">
-        <v>0.9375</v>
-      </c>
-      <c r="AO85">
-        <v>0.9375</v>
-      </c>
-      <c r="AP85">
-        <v>0.9375</v>
-      </c>
-      <c r="AQ85">
-        <v>0.9375</v>
-      </c>
-      <c r="AR85">
-        <v>0.9375</v>
-      </c>
-      <c r="AS85">
-        <v>0.9375</v>
-      </c>
-      <c r="AT85">
-        <v>0.9375</v>
-      </c>
-      <c r="AU85">
-        <v>0.9375</v>
-      </c>
-      <c r="AV85">
-        <v>0.9375</v>
-      </c>
-      <c r="AW85">
-        <v>0.9375</v>
-      </c>
-      <c r="AX85">
-        <v>0.9375</v>
-      </c>
-      <c r="AY85">
-        <v>0.9375</v>
-      </c>
-      <c r="AZ85">
-        <v>0.9375</v>
-      </c>
-      <c r="BA85">
-        <v>0.9375</v>
-      </c>
-      <c r="BB85">
-        <v>0.9375</v>
-      </c>
-      <c r="BC85">
-        <v>0.9375</v>
-      </c>
-      <c r="BD85">
-        <v>0.9375</v>
-      </c>
-      <c r="BE85">
-        <v>0.9375</v>
-      </c>
-      <c r="BF85">
-        <v>0.9375</v>
-      </c>
-      <c r="BG85">
-        <v>0.9375</v>
-      </c>
-      <c r="BH85">
-        <v>0.9375</v>
-      </c>
-      <c r="BI85">
-        <v>0.9375</v>
-      </c>
-      <c r="BJ85">
-        <v>0.9375</v>
-      </c>
-      <c r="BK85">
-        <v>0.9375</v>
-      </c>
-      <c r="BL85">
-        <v>0.9375</v>
-      </c>
-      <c r="BM85">
-        <v>0.9375</v>
-      </c>
-      <c r="BN85">
-        <v>0.9375</v>
-      </c>
-      <c r="BO85">
-        <v>0.9375</v>
-      </c>
-      <c r="BP85">
-        <v>0.9375</v>
-      </c>
-      <c r="BQ85">
-        <v>0.9375</v>
-      </c>
-      <c r="BR85">
-        <v>0.9375</v>
-      </c>
-      <c r="BS85">
-        <v>0.9375</v>
-      </c>
-      <c r="BT85">
-        <v>0.9375</v>
-      </c>
-      <c r="BU85">
-        <v>0.9375</v>
-      </c>
-      <c r="BV85">
-        <v>0.9375</v>
-      </c>
-      <c r="BW85">
-        <v>0.9375</v>
-      </c>
-      <c r="BX85">
-        <v>0.9375</v>
-      </c>
-      <c r="BY85">
-        <v>0.9375</v>
-      </c>
-      <c r="BZ85">
-        <v>0.9375</v>
-      </c>
-      <c r="CA85">
-        <v>0.9375</v>
-      </c>
-      <c r="CB85">
-        <v>0.9375</v>
-      </c>
-      <c r="CC85">
-        <v>0.9375</v>
-      </c>
-      <c r="CD85">
-        <v>0.9375</v>
-      </c>
-      <c r="CE85">
-        <v>0.9375</v>
-      </c>
-      <c r="CF85">
-        <v>0.9375</v>
-      </c>
-      <c r="CG85">
-        <v>0.9375</v>
-      </c>
-      <c r="CH85">
-        <v>0.9375</v>
-      </c>
-      <c r="CI85">
-        <v>0.9375</v>
-      </c>
-      <c r="CJ85">
-        <v>0.9375</v>
-      </c>
-      <c r="CK85">
-        <v>0.9375</v>
-      </c>
-      <c r="CL85">
-        <v>0.9375</v>
-      </c>
-      <c r="CM85">
-        <v>0.9375</v>
-      </c>
-      <c r="CN85">
-        <v>0.9375</v>
-      </c>
-      <c r="CO85">
-        <v>0.9375</v>
-      </c>
-      <c r="CP85">
-        <v>0.9375</v>
-      </c>
-      <c r="CQ85">
-        <v>0.9375</v>
-      </c>
-      <c r="CR85">
-        <v>0.9375</v>
-      </c>
-      <c r="CS85">
-        <v>0.9375</v>
-      </c>
-      <c r="CT85">
-        <v>0.9375</v>
-      </c>
-      <c r="CU85">
-        <v>0.9375</v>
-      </c>
-      <c r="CV85">
-        <v>0.9375</v>
-      </c>
-      <c r="CW85">
-        <v>0.9375</v>
-      </c>
-    </row>
-    <row r="89" spans="2:101">
-      <c r="B89">
-        <v>2.1875</v>
-      </c>
-      <c r="C89">
-        <v>2.1875</v>
-      </c>
-      <c r="D89">
-        <v>2.1875</v>
-      </c>
-      <c r="E89">
-        <v>2.1875</v>
-      </c>
-      <c r="F89">
-        <v>2.1875</v>
-      </c>
-      <c r="G89">
-        <v>2.1875</v>
-      </c>
-      <c r="H89">
-        <v>2.1875</v>
-      </c>
-      <c r="I89">
-        <v>2.1875</v>
-      </c>
-      <c r="J89">
-        <v>2.1875</v>
-      </c>
-      <c r="K89">
-        <v>2.1875</v>
-      </c>
-      <c r="L89">
-        <v>2.1875</v>
-      </c>
-      <c r="M89">
-        <v>2.1875</v>
-      </c>
-      <c r="N89">
-        <v>2.1875</v>
-      </c>
-      <c r="O89">
-        <v>2.1875</v>
-      </c>
-      <c r="P89">
-        <v>2.1875</v>
-      </c>
-      <c r="Q89">
-        <v>2.1875</v>
-      </c>
-      <c r="R89">
-        <v>2.1875</v>
-      </c>
-      <c r="S89">
-        <v>2.1875</v>
-      </c>
-      <c r="T89">
-        <v>2.1875</v>
-      </c>
-      <c r="U89">
-        <v>2.1875</v>
-      </c>
-      <c r="V89">
-        <v>2.1875</v>
-      </c>
-      <c r="W89">
-        <v>2.1875</v>
-      </c>
-      <c r="X89">
-        <v>2.1875</v>
-      </c>
-      <c r="Y89">
-        <v>2.1875</v>
-      </c>
-      <c r="Z89">
-        <v>2.1875</v>
-      </c>
-      <c r="AA89">
-        <v>2.1875</v>
-      </c>
-      <c r="AB89">
-        <v>2.1875</v>
-      </c>
-      <c r="AC89">
-        <v>2.1875</v>
-      </c>
-      <c r="AD89">
-        <v>2.1875</v>
-      </c>
-      <c r="AE89">
-        <v>2.1875</v>
-      </c>
-      <c r="AF89">
-        <v>2.1875</v>
-      </c>
-      <c r="AG89">
-        <v>2.1875</v>
-      </c>
-      <c r="AH89">
-        <v>2.1875</v>
-      </c>
-      <c r="AI89">
-        <v>2.1875</v>
-      </c>
-      <c r="AJ89">
-        <v>2.1875</v>
-      </c>
-      <c r="AK89">
-        <v>2.1875</v>
-      </c>
-      <c r="AL89">
-        <v>2.1875</v>
-      </c>
-      <c r="AM89">
-        <v>2.1875</v>
-      </c>
-      <c r="AN89">
-        <v>2.1875</v>
-      </c>
-      <c r="AO89">
-        <v>2.1875</v>
-      </c>
-      <c r="AP89">
-        <v>2.1875</v>
-      </c>
-      <c r="AQ89">
-        <v>2.1875</v>
-      </c>
-      <c r="AR89">
-        <v>2.1875</v>
-      </c>
-      <c r="AS89">
-        <v>2.1875</v>
-      </c>
-      <c r="AT89">
-        <v>2.1875</v>
-      </c>
-      <c r="AU89">
-        <v>2.1875</v>
-      </c>
-      <c r="AV89">
-        <v>2.1875</v>
-      </c>
-      <c r="AW89">
-        <v>2.1875</v>
-      </c>
-      <c r="AX89">
-        <v>2.1875</v>
-      </c>
-      <c r="AY89">
-        <v>2.1875</v>
-      </c>
-      <c r="AZ89">
-        <v>2.1875</v>
-      </c>
-      <c r="BA89">
-        <v>2.1875</v>
-      </c>
-      <c r="BB89">
-        <v>2.1875</v>
-      </c>
-      <c r="BC89">
-        <v>2.1875</v>
-      </c>
-      <c r="BD89">
-        <v>2.1875</v>
-      </c>
-      <c r="BE89">
-        <v>2.1875</v>
-      </c>
-      <c r="BF89">
-        <v>2.1875</v>
-      </c>
-      <c r="BG89">
-        <v>2.1875</v>
-      </c>
-      <c r="BH89">
-        <v>2.1875</v>
-      </c>
-      <c r="BI89">
-        <v>2.1875</v>
-      </c>
-      <c r="BJ89">
-        <v>2.1875</v>
-      </c>
-      <c r="BK89">
-        <v>2.1875</v>
-      </c>
-      <c r="BL89">
-        <v>2.1875</v>
-      </c>
-      <c r="BM89">
-        <v>2.1875</v>
-      </c>
-      <c r="BN89">
-        <v>2.1875</v>
-      </c>
-      <c r="BO89">
-        <v>2.1875</v>
-      </c>
-      <c r="BP89">
-        <v>2.1875</v>
-      </c>
-      <c r="BQ89">
-        <v>2.1875</v>
-      </c>
-      <c r="BR89">
-        <v>2.1875</v>
-      </c>
-      <c r="BS89">
-        <v>2.1875</v>
-      </c>
-      <c r="BT89">
-        <v>2.1875</v>
-      </c>
-      <c r="BU89">
-        <v>2.1875</v>
-      </c>
-      <c r="BV89">
-        <v>2.1875</v>
-      </c>
-      <c r="BW89">
-        <v>2.1875</v>
-      </c>
-      <c r="BX89">
-        <v>2.1875</v>
-      </c>
-      <c r="BY89">
-        <v>2.1875</v>
-      </c>
-      <c r="BZ89">
-        <v>2.1875</v>
-      </c>
-      <c r="CA89">
-        <v>2.1875</v>
-      </c>
-      <c r="CB89">
-        <v>2.1875</v>
-      </c>
-      <c r="CC89">
-        <v>2.1875</v>
-      </c>
-      <c r="CD89">
-        <v>2.1875</v>
-      </c>
-      <c r="CE89">
-        <v>2.1875</v>
-      </c>
-      <c r="CF89">
-        <v>2.1875</v>
-      </c>
-      <c r="CG89">
-        <v>2.1875</v>
-      </c>
-      <c r="CH89">
-        <v>2.1875</v>
-      </c>
-      <c r="CI89">
-        <v>2.1875</v>
-      </c>
-      <c r="CJ89">
-        <v>2.1875</v>
-      </c>
-      <c r="CK89">
-        <v>2.1875</v>
-      </c>
-      <c r="CL89">
-        <v>2.1875</v>
-      </c>
-      <c r="CM89">
-        <v>2.1875</v>
-      </c>
-      <c r="CN89">
-        <v>2.1875</v>
-      </c>
-      <c r="CO89">
-        <v>2.1875</v>
-      </c>
-      <c r="CP89">
-        <v>2.1875</v>
-      </c>
-      <c r="CQ89">
-        <v>2.1875</v>
-      </c>
-      <c r="CR89">
-        <v>2.1875</v>
-      </c>
-      <c r="CS89">
-        <v>2.1875</v>
-      </c>
-      <c r="CT89">
-        <v>2.1875</v>
-      </c>
-      <c r="CU89">
-        <v>2.1875</v>
-      </c>
-      <c r="CV89">
-        <v>2.1875</v>
-      </c>
-      <c r="CW89">
-        <v>2.1875</v>
-      </c>
-    </row>
-    <row r="93" spans="2:101">
-      <c r="B93">
-        <v>1.875</v>
-      </c>
-      <c r="C93">
-        <v>1.875</v>
-      </c>
-      <c r="D93">
-        <v>1.875</v>
-      </c>
-      <c r="E93">
-        <v>1.875</v>
-      </c>
-      <c r="F93">
-        <v>1.875</v>
-      </c>
-      <c r="G93">
-        <v>1.875</v>
-      </c>
-      <c r="H93">
-        <v>1.875</v>
-      </c>
-      <c r="I93">
-        <v>1.875</v>
-      </c>
-      <c r="J93">
-        <v>1.875</v>
-      </c>
-      <c r="K93">
-        <v>1.875</v>
-      </c>
-      <c r="L93">
-        <v>1.875</v>
-      </c>
-      <c r="M93">
-        <v>1.875</v>
-      </c>
-      <c r="N93">
-        <v>1.875</v>
-      </c>
-      <c r="O93">
-        <v>1.875</v>
-      </c>
-      <c r="P93">
-        <v>1.875</v>
-      </c>
-      <c r="Q93">
-        <v>1.875</v>
-      </c>
-      <c r="R93">
-        <v>1.875</v>
-      </c>
-      <c r="S93">
-        <v>1.875</v>
-      </c>
-      <c r="T93">
-        <v>1.875</v>
-      </c>
-      <c r="U93">
-        <v>1.875</v>
-      </c>
-      <c r="V93">
-        <v>1.875</v>
-      </c>
-      <c r="W93">
-        <v>1.875</v>
-      </c>
-      <c r="X93">
-        <v>1.875</v>
-      </c>
-      <c r="Y93">
-        <v>1.875</v>
-      </c>
-      <c r="Z93">
-        <v>1.875</v>
-      </c>
-      <c r="AA93">
-        <v>1.875</v>
-      </c>
-      <c r="AB93">
-        <v>1.875</v>
-      </c>
-      <c r="AC93">
-        <v>1.875</v>
-      </c>
-      <c r="AD93">
-        <v>1.875</v>
-      </c>
-      <c r="AE93">
-        <v>1.875</v>
-      </c>
-      <c r="AF93">
-        <v>1.875</v>
-      </c>
-      <c r="AG93">
-        <v>1.875</v>
-      </c>
-      <c r="AH93">
-        <v>1.875</v>
-      </c>
-      <c r="AI93">
-        <v>1.875</v>
-      </c>
-      <c r="AJ93">
-        <v>1.875</v>
-      </c>
-      <c r="AK93">
-        <v>1.875</v>
-      </c>
-      <c r="AL93">
-        <v>1.875</v>
-      </c>
-      <c r="AM93">
-        <v>1.875</v>
-      </c>
-      <c r="AN93">
-        <v>1.875</v>
-      </c>
-      <c r="AO93">
-        <v>1.875</v>
-      </c>
-      <c r="AP93">
-        <v>1.875</v>
-      </c>
-      <c r="AQ93">
-        <v>1.875</v>
-      </c>
-      <c r="AR93">
-        <v>1.875</v>
-      </c>
-      <c r="AS93">
-        <v>1.875</v>
-      </c>
-      <c r="AT93">
-        <v>1.875</v>
-      </c>
-      <c r="AU93">
-        <v>1.875</v>
-      </c>
-      <c r="AV93">
-        <v>1.875</v>
-      </c>
-      <c r="AW93">
-        <v>1.875</v>
-      </c>
-      <c r="AX93">
-        <v>1.875</v>
-      </c>
-      <c r="AY93">
-        <v>1.875</v>
-      </c>
-      <c r="AZ93">
-        <v>1.875</v>
-      </c>
-      <c r="BA93">
-        <v>1.875</v>
-      </c>
-      <c r="BB93">
-        <v>1.875</v>
-      </c>
-      <c r="BC93">
-        <v>1.875</v>
-      </c>
-      <c r="BD93">
-        <v>1.875</v>
-      </c>
-      <c r="BE93">
-        <v>1.875</v>
-      </c>
-      <c r="BF93">
-        <v>1.875</v>
-      </c>
-      <c r="BG93">
-        <v>1.875</v>
-      </c>
-      <c r="BH93">
-        <v>1.875</v>
-      </c>
-      <c r="BI93">
-        <v>1.875</v>
-      </c>
-      <c r="BJ93">
-        <v>1.875</v>
-      </c>
-      <c r="BK93">
-        <v>1.875</v>
-      </c>
-      <c r="BL93">
-        <v>1.875</v>
-      </c>
-      <c r="BM93">
-        <v>1.875</v>
-      </c>
-      <c r="BN93">
-        <v>1.875</v>
-      </c>
-      <c r="BO93">
-        <v>1.875</v>
-      </c>
-      <c r="BP93">
-        <v>1.875</v>
-      </c>
-      <c r="BQ93">
-        <v>1.875</v>
-      </c>
-      <c r="BR93">
-        <v>1.875</v>
-      </c>
-      <c r="BS93">
-        <v>1.875</v>
-      </c>
-      <c r="BT93">
-        <v>1.875</v>
-      </c>
-      <c r="BU93">
-        <v>1.875</v>
-      </c>
-      <c r="BV93">
-        <v>1.875</v>
-      </c>
-      <c r="BW93">
-        <v>1.875</v>
-      </c>
-      <c r="BX93">
-        <v>1.875</v>
-      </c>
-      <c r="BY93">
-        <v>1.875</v>
-      </c>
-      <c r="BZ93">
-        <v>1.875</v>
-      </c>
-      <c r="CA93">
-        <v>1.875</v>
-      </c>
-      <c r="CB93">
-        <v>1.875</v>
-      </c>
-      <c r="CC93">
-        <v>1.875</v>
-      </c>
-      <c r="CD93">
-        <v>1.875</v>
-      </c>
-      <c r="CE93">
-        <v>1.875</v>
-      </c>
-      <c r="CF93">
-        <v>1.875</v>
-      </c>
-      <c r="CG93">
-        <v>1.875</v>
-      </c>
-      <c r="CH93">
-        <v>1.875</v>
-      </c>
-      <c r="CI93">
-        <v>1.875</v>
-      </c>
-      <c r="CJ93">
-        <v>1.875</v>
-      </c>
-      <c r="CK93">
-        <v>1.875</v>
-      </c>
-      <c r="CL93">
-        <v>1.875</v>
-      </c>
-      <c r="CM93">
-        <v>1.875</v>
-      </c>
-      <c r="CN93">
-        <v>1.875</v>
-      </c>
-      <c r="CO93">
-        <v>1.875</v>
-      </c>
-      <c r="CP93">
-        <v>1.875</v>
-      </c>
-      <c r="CQ93">
-        <v>1.875</v>
-      </c>
-      <c r="CR93">
-        <v>1.875</v>
-      </c>
-      <c r="CS93">
-        <v>1.875</v>
-      </c>
-      <c r="CT93">
-        <v>1.875</v>
-      </c>
-      <c r="CU93">
-        <v>1.875</v>
-      </c>
-      <c r="CV93">
-        <v>1.875</v>
-      </c>
-      <c r="CW93">
-        <v>1.875</v>
+        <v>2.711864406779661</v>
       </c>
     </row>
   </sheetData>

--- a/codes/test_shell_output/testPRON_New_2.xlsx
+++ b/codes/test_shell_output/testPRON_New_2.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B5:CW81"/>
+  <dimension ref="B5:CW89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -348,6042 +348,6646 @@
   <sheetData>
     <row r="5" spans="2:101">
       <c r="B5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="C5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="D5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="E5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="F5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="G5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="H5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="I5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="J5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="K5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="L5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="M5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="N5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="O5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="P5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="Q5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="R5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="S5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="T5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="U5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="V5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="W5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="X5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="Y5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="Z5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="AA5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="AB5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="AC5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="AD5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="AE5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="AF5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="AG5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="AH5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="AI5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="AJ5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="AK5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="AL5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="AM5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="AN5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="AO5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="AP5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="AQ5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="AR5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="AS5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="AT5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="AU5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="AV5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="AW5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="AX5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="AY5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="AZ5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="BA5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="BB5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="BC5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="BD5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="BE5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="BF5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="BG5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="BH5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="BI5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="BJ5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="BK5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="BL5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="BM5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="BN5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="BO5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="BP5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="BQ5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="BR5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="BS5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="BT5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="BU5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="BV5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="BW5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="BX5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="BY5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="BZ5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="CA5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="CB5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="CC5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="CD5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="CE5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="CF5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="CG5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="CH5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="CI5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="CJ5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="CK5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="CL5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="CM5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="CN5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="CO5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="CP5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="CQ5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="CR5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="CS5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="CT5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="CU5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="CV5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="CW5">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
     </row>
     <row r="9" spans="2:101">
       <c r="B9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="C9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="D9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="E9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="F9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="G9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="H9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="I9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="J9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="K9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="L9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="M9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="N9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="O9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="P9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="Q9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="R9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="S9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="T9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="U9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="V9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="W9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="X9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="Y9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="Z9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="AA9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="AB9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="AC9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="AD9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="AE9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="AF9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="AG9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="AH9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="AI9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="AJ9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="AK9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="AL9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="AM9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="AN9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="AO9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="AP9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="AQ9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="AR9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="AS9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="AT9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="AU9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="AV9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="AW9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="AX9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="AY9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="AZ9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="BA9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="BB9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="BC9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="BD9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="BE9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="BF9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="BG9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="BH9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="BI9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="BJ9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="BK9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="BL9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="BM9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="BN9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="BO9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="BP9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="BQ9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="BR9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="BS9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="BT9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="BU9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="BV9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="BW9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="BX9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="BY9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="BZ9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="CA9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="CB9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="CC9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="CD9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="CE9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="CF9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="CG9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="CH9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="CI9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="CJ9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="CK9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="CL9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="CM9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="CN9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="CO9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="CP9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="CQ9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="CR9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="CS9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="CT9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="CU9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="CV9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="CW9">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
     </row>
     <row r="13" spans="2:101">
       <c r="B13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="C13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="D13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="E13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="F13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="G13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="H13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="I13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="J13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="K13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="L13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="M13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="N13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="O13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="P13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="Q13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="R13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="S13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="T13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="U13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="V13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="W13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="X13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="Y13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="Z13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AA13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AB13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AC13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AD13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AE13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AF13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AG13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AH13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AI13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AJ13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AK13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AL13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AM13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AN13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AO13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AP13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AQ13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AR13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AS13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AT13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AU13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AV13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AW13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AX13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AY13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AZ13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BA13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BB13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BC13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BD13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BE13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BF13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BG13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BH13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BI13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BJ13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BK13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BL13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BM13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BN13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BO13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BP13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BQ13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BR13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BS13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BT13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BU13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BV13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BW13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BX13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BY13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BZ13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CA13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CB13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CC13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CD13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CE13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CF13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CG13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CH13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CI13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CJ13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CK13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CL13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CM13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CN13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CO13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CP13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CQ13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CR13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CS13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CT13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CU13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CV13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CW13">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
     </row>
     <row r="17" spans="2:101">
       <c r="B17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="C17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="D17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="E17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="F17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="G17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="H17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="I17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="J17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="K17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="L17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="M17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="N17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="O17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="P17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="Q17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="R17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="S17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="T17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="U17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="V17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="W17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="X17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="Y17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="Z17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="AA17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="AB17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="AC17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="AD17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="AE17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="AF17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="AG17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="AH17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="AI17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="AJ17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="AK17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="AL17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="AM17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="AN17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="AO17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="AP17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="AQ17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="AR17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="AS17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="AT17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="AU17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="AV17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="AW17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="AX17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="AY17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="AZ17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="BA17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="BB17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="BC17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="BD17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="BE17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="BF17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="BG17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="BH17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="BI17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="BJ17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="BK17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="BL17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="BM17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="BN17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="BO17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="BP17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="BQ17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="BR17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="BS17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="BT17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="BU17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="BV17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="BW17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="BX17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="BY17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="BZ17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="CA17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="CB17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="CC17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="CD17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="CE17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="CF17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="CG17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="CH17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="CI17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="CJ17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="CK17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="CL17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="CM17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="CN17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="CO17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="CP17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="CQ17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="CR17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="CS17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="CT17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="CU17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="CV17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="CW17">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
     </row>
     <row r="21" spans="2:101">
       <c r="B21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="C21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="D21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="E21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="F21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="G21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="H21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="I21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="J21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="K21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="L21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="M21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="N21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="O21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="P21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="Q21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="R21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="S21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="T21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="U21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="V21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="W21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="X21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="Y21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="Z21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AA21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AB21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AC21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AD21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AE21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AF21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AG21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AH21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AI21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AJ21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AK21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AL21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AM21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AN21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AO21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AP21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AQ21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AR21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AS21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AT21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AU21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AV21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AW21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AX21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AY21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AZ21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BA21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BB21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BC21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BD21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BE21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BF21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BG21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BH21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BI21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BJ21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BK21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BL21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BM21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BN21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BO21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BP21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BQ21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BR21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BS21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BT21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BU21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BV21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BW21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BX21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BY21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BZ21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CA21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CB21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CC21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CD21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CE21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CF21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CG21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CH21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CI21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CJ21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CK21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CL21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CM21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CN21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CO21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CP21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CQ21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CR21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CS21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CT21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CU21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CV21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CW21">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
     </row>
     <row r="25" spans="2:101">
       <c r="B25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="C25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="D25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="E25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="F25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="G25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="H25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="I25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="J25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="K25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="L25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="M25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="N25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="O25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="P25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="Q25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="R25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="S25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="T25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="U25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="V25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="W25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="X25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="Y25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="Z25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="AA25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="AB25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="AC25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="AD25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="AE25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="AF25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="AG25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="AH25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="AI25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="AJ25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="AK25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="AL25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="AM25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="AN25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="AO25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="AP25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="AQ25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="AR25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="AS25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="AT25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="AU25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="AV25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="AW25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="AX25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="AY25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="AZ25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="BA25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="BB25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="BC25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="BD25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="BE25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="BF25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="BG25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="BH25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="BI25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="BJ25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="BK25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="BL25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="BM25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="BN25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="BO25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="BP25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="BQ25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="BR25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="BS25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="BT25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="BU25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="BV25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="BW25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="BX25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="BY25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="BZ25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="CA25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="CB25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="CC25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="CD25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="CE25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="CF25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="CG25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="CH25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="CI25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="CJ25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="CK25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="CL25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="CM25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="CN25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="CO25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="CP25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="CQ25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="CR25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="CS25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="CT25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="CU25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="CV25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="CW25">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
     </row>
     <row r="29" spans="2:101">
       <c r="B29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="C29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="D29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="E29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="F29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="G29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="H29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="I29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="J29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="K29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="L29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="M29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="N29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="O29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="P29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="Q29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="R29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="S29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="T29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="U29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="V29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="W29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="X29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="Y29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="Z29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="AA29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="AB29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="AC29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="AD29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="AE29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="AF29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="AG29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="AH29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="AI29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="AJ29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="AK29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="AL29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="AM29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="AN29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="AO29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="AP29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="AQ29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="AR29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="AS29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="AT29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="AU29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="AV29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="AW29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="AX29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="AY29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="AZ29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="BA29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="BB29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="BC29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="BD29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="BE29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="BF29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="BG29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="BH29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="BI29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="BJ29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="BK29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="BL29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="BM29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="BN29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="BO29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="BP29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="BQ29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="BR29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="BS29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="BT29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="BU29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="BV29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="BW29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="BX29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="BY29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="BZ29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="CA29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="CB29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="CC29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="CD29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="CE29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="CF29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="CG29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="CH29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="CI29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="CJ29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="CK29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="CL29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="CM29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="CN29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="CO29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="CP29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="CQ29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="CR29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="CS29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="CT29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="CU29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="CV29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="CW29">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
     </row>
     <row r="33" spans="2:101">
       <c r="B33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="C33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="D33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="E33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="F33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="G33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="H33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="I33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="J33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="K33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="L33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="M33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="N33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="O33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="P33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="Q33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="R33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="S33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="T33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="U33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="V33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="W33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="X33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="Y33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="Z33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AA33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AB33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AC33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AD33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AE33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AF33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AG33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AH33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AI33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AJ33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AK33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AL33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AM33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AN33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AO33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AP33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AQ33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AR33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AS33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AT33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AU33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AV33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AW33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AX33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AY33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AZ33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BA33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BB33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BC33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BD33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BE33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BF33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BG33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BH33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BI33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BJ33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BK33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BL33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BM33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BN33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BO33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BP33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BQ33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BR33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BS33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BT33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BU33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BV33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BW33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BX33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BY33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BZ33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CA33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CB33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CC33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CD33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CE33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CF33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CG33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CH33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CI33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CJ33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CK33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CL33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CM33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CN33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CO33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CP33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CQ33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CR33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CS33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CT33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CU33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CV33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CW33">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
     </row>
     <row r="37" spans="2:101">
       <c r="B37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="C37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="D37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="E37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="F37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="G37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="H37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="I37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="J37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="K37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="L37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="M37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="N37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="O37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="P37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="Q37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="R37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="S37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="T37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="U37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="V37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="W37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="X37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="Y37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="Z37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="AA37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="AB37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="AC37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="AD37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="AE37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="AF37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="AG37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="AH37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="AI37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="AJ37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="AK37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="AL37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="AM37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="AN37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="AO37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="AP37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="AQ37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="AR37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="AS37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="AT37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="AU37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="AV37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="AW37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="AX37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="AY37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="AZ37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="BA37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="BB37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="BC37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="BD37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="BE37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="BF37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="BG37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="BH37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="BI37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="BJ37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="BK37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="BL37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="BM37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="BN37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="BO37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="BP37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="BQ37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="BR37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="BS37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="BT37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="BU37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="BV37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="BW37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="BX37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="BY37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="BZ37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="CA37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="CB37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="CC37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="CD37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="CE37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="CF37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="CG37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="CH37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="CI37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="CJ37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="CK37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="CL37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="CM37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="CN37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="CO37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="CP37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="CQ37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="CR37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="CS37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="CT37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="CU37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="CV37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="CW37">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
     </row>
     <row r="41" spans="2:101">
       <c r="B41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="C41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="D41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="E41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="F41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="G41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="H41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="I41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="J41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="K41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="L41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="M41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="N41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="O41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="P41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="Q41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="R41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="S41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="T41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="U41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="V41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="W41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="X41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="Y41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="Z41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AA41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AB41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AC41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AD41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AE41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AF41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AG41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AH41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AI41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AJ41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AK41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AL41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AM41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AN41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AO41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AP41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AQ41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AR41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AS41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AT41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AU41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AV41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AW41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AX41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AY41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AZ41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="BA41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="BB41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="BC41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="BD41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="BE41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="BF41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="BG41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="BH41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="BI41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="BJ41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="BK41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="BL41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="BM41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="BN41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="BO41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="BP41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="BQ41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="BR41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="BS41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="BT41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="BU41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="BV41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="BW41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="BX41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="BY41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="BZ41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="CA41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="CB41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="CC41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="CD41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="CE41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="CF41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="CG41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="CH41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="CI41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="CJ41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="CK41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="CL41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="CM41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="CN41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="CO41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="CP41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="CQ41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="CR41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="CS41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="CT41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="CU41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="CV41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="CW41">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
     </row>
     <row r="45" spans="2:101">
       <c r="B45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="C45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="D45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="E45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="F45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="G45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="H45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="I45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="J45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="K45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="L45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="M45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="N45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="O45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="P45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="Q45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="R45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="S45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="T45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="U45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="V45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="W45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="X45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="Y45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="Z45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AA45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AB45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AC45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AD45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AE45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AF45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AG45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AH45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AI45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AJ45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AK45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AL45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AM45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AN45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AO45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AP45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AQ45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AR45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AS45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AT45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AU45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AV45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AW45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AX45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AY45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AZ45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="BA45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="BB45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="BC45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="BD45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="BE45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="BF45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="BG45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="BH45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="BI45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="BJ45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="BK45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="BL45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="BM45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="BN45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="BO45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="BP45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="BQ45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="BR45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="BS45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="BT45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="BU45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="BV45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="BW45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="BX45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="BY45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="BZ45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="CA45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="CB45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="CC45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="CD45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="CE45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="CF45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="CG45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="CH45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="CI45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="CJ45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="CK45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="CL45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="CM45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="CN45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="CO45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="CP45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="CQ45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="CR45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="CS45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="CT45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="CU45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="CV45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="CW45">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
     </row>
     <row r="49" spans="2:101">
       <c r="B49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="C49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="D49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="E49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="F49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="G49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="H49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="I49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="J49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="K49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="L49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="M49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="N49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="O49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="P49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="Q49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="R49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="S49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="T49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="U49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="V49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="W49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="X49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="Y49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="Z49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="AA49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="AB49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="AC49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="AD49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="AE49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="AF49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="AG49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="AH49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="AI49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="AJ49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="AK49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="AL49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="AM49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="AN49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="AO49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="AP49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="AQ49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="AR49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="AS49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="AT49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="AU49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="AV49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="AW49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="AX49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="AY49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="AZ49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="BA49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="BB49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="BC49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="BD49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="BE49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="BF49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="BG49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="BH49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="BI49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="BJ49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="BK49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="BL49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="BM49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="BN49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="BO49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="BP49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="BQ49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="BR49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="BS49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="BT49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="BU49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="BV49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="BW49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="BX49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="BY49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="BZ49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="CA49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="CB49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="CC49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="CD49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="CE49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="CF49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="CG49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="CH49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="CI49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="CJ49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="CK49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="CL49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="CM49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="CN49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="CO49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="CP49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="CQ49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="CR49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="CS49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="CT49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="CU49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="CV49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="CW49">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
     </row>
     <row r="53" spans="2:101">
       <c r="B53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="C53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="D53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="E53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="F53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="G53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="H53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="I53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="J53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="K53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="L53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="M53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="N53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="O53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="P53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="Q53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="R53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="S53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="T53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="U53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="V53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="W53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="X53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="Y53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="Z53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="AA53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="AB53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="AC53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="AD53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="AE53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="AF53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="AG53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="AH53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="AI53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="AJ53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="AK53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="AL53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="AM53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="AN53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="AO53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="AP53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="AQ53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="AR53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="AS53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="AT53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="AU53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="AV53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="AW53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="AX53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="AY53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="AZ53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="BA53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="BB53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="BC53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="BD53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="BE53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="BF53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="BG53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="BH53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="BI53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="BJ53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="BK53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="BL53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="BM53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="BN53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="BO53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="BP53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="BQ53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="BR53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="BS53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="BT53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="BU53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="BV53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="BW53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="BX53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="BY53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="BZ53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="CA53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="CB53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="CC53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="CD53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="CE53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="CF53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="CG53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="CH53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="CI53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="CJ53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="CK53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="CL53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="CM53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="CN53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="CO53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="CP53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="CQ53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="CR53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="CS53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="CT53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="CU53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="CV53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="CW53">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
     </row>
     <row r="57" spans="2:101">
       <c r="B57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="C57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="D57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="E57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="F57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="G57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="H57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="I57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="J57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="K57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="L57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="M57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="N57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="O57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="P57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="Q57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="R57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="S57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="T57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="U57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="V57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="W57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="X57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="Y57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="Z57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AA57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AB57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AC57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AD57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AE57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AF57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AG57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AH57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AI57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AJ57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AK57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AL57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AM57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AN57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AO57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AP57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AQ57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AR57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AS57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AT57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AU57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AV57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AW57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AX57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AY57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AZ57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BA57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BB57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BC57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BD57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BE57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BF57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BG57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BH57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BI57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BJ57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BK57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BL57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BM57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BN57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BO57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BP57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BQ57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BR57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BS57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BT57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BU57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BV57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BW57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BX57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BY57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BZ57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CA57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CB57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CC57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CD57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CE57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CF57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CG57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CH57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CI57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CJ57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CK57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CL57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CM57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CN57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CO57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CP57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CQ57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CR57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CS57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CT57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CU57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CV57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CW57">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
     </row>
     <row r="61" spans="2:101">
       <c r="B61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="C61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="D61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="E61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="F61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="G61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="H61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="I61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="J61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="K61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="L61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="M61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="N61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="O61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="P61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="Q61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="R61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="S61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="T61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="U61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="V61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="W61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="X61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="Y61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="Z61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AA61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AB61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AC61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AD61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AE61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AF61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AG61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AH61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AI61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AJ61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AK61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AL61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AM61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AN61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AO61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AP61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AQ61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AR61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AS61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AT61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AU61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AV61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AW61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AX61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AY61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AZ61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BA61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BB61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BC61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BD61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BE61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BF61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BG61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BH61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BI61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BJ61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BK61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BL61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BM61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BN61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BO61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BP61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BQ61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BR61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BS61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BT61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BU61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BV61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BW61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BX61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BY61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BZ61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CA61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CB61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CC61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CD61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CE61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CF61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CG61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CH61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CI61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CJ61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CK61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CL61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CM61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CN61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CO61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CP61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CQ61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CR61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CS61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CT61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CU61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CV61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CW61">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
     </row>
     <row r="65" spans="2:101">
       <c r="B65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="C65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="D65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="E65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="F65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="G65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="H65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="I65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="J65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="K65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="L65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="M65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="N65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="O65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="P65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="Q65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="R65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="S65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="T65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="U65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="V65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="W65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="X65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="Y65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="Z65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AA65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AB65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AC65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AD65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AE65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AF65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AG65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AH65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AI65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AJ65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AK65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AL65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AM65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AN65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AO65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AP65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AQ65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AR65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AS65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AT65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AU65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AV65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AW65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AX65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AY65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AZ65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BA65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BB65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BC65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BD65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BE65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BF65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BG65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BH65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BI65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BJ65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BK65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BL65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BM65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BN65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BO65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BP65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BQ65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BR65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BS65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BT65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BU65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BV65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BW65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BX65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BY65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BZ65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CA65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CB65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CC65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CD65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CE65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CF65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CG65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CH65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CI65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CJ65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CK65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CL65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CM65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CN65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CO65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CP65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CQ65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CR65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CS65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CT65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CU65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CV65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CW65">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
     </row>
     <row r="69" spans="2:101">
       <c r="B69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="C69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="D69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="E69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="F69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="G69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="H69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="I69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="J69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="K69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="L69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="M69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="N69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="O69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="P69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="Q69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="R69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="S69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="T69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="U69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="V69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="W69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="X69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="Y69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="Z69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AA69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AB69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AC69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AD69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AE69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AF69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AG69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AH69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AI69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AJ69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AK69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AL69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AM69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AN69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AO69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AP69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AQ69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AR69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AS69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AT69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AU69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AV69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AW69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AX69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AY69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AZ69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BA69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BB69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BC69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BD69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BE69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BF69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BG69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BH69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BI69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BJ69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BK69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BL69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BM69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BN69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BO69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BP69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BQ69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BR69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BS69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BT69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BU69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BV69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BW69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BX69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BY69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BZ69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CA69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CB69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CC69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CD69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CE69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CF69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CG69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CH69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CI69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CJ69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CK69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CL69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CM69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CN69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CO69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CP69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CQ69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CR69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CS69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CT69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CU69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CV69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CW69">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
     </row>
     <row r="73" spans="2:101">
       <c r="B73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="C73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="D73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="E73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="F73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="G73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="H73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="I73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="J73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="K73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="L73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="M73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="N73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="O73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="P73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="Q73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="R73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="S73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="T73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="U73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="V73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="W73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="X73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="Y73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="Z73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AA73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AB73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AC73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AD73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AE73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AF73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AG73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AH73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AI73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AJ73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AK73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AL73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AM73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AN73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AO73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AP73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AQ73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AR73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AS73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AT73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AU73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AV73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AW73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AX73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AY73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AZ73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BA73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BB73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BC73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BD73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BE73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BF73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BG73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BH73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BI73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BJ73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BK73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BL73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BM73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BN73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BO73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BP73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BQ73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BR73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BS73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BT73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BU73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BV73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BW73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BX73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BY73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BZ73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CA73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CB73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CC73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CD73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CE73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CF73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CG73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CH73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CI73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CJ73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CK73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CL73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CM73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CN73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CO73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CP73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CQ73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CR73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CS73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CT73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CU73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CV73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CW73">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
     </row>
     <row r="77" spans="2:101">
       <c r="B77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="C77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="D77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="E77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="F77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="G77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="H77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="I77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="J77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="K77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="L77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="M77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="N77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="O77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="P77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="Q77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="R77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="S77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="T77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="U77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="V77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="W77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="X77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="Y77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="Z77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AA77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AB77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AC77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AD77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AE77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AF77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AG77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AH77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AI77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AJ77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AK77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AL77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AM77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AN77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AO77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AP77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AQ77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AR77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AS77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AT77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AU77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AV77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AW77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AX77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AY77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AZ77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BA77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BB77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BC77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BD77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BE77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BF77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BG77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BH77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BI77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BJ77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BK77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BL77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BM77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BN77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BO77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BP77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BQ77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BR77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BS77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BT77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BU77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BV77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BW77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BX77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BY77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BZ77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CA77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CB77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CC77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CD77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CE77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CF77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CG77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CH77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CI77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CJ77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CK77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CL77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CM77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CN77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CO77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CP77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CQ77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CR77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CS77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CT77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CU77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CV77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CW77">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
     </row>
     <row r="81" spans="2:101">
       <c r="B81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="C81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="D81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="E81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="F81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="G81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="H81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="I81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="J81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="K81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="L81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="M81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="N81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="O81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="P81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="Q81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="R81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="S81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="T81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="U81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="V81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="W81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="X81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="Y81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="Z81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AA81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AB81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AC81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AD81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AE81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AF81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AG81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AH81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AI81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AJ81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AK81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AL81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AM81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AN81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AO81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AP81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AQ81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AR81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AS81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AT81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AU81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AV81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AW81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AX81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AY81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AZ81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BA81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BB81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BC81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BD81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BE81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BF81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BG81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BH81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BI81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BJ81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BK81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BL81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BM81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BN81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BO81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BP81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BQ81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BR81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BS81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BT81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BU81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BV81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BW81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BX81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BY81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BZ81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CA81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CB81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CC81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CD81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CE81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CF81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CG81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CH81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CI81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CJ81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CK81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CL81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CM81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CN81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CO81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CP81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CQ81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CR81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CS81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CT81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CU81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CV81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CW81">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
+      </c>
+    </row>
+    <row r="85" spans="2:101">
+      <c r="B85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="C85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="D85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="E85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="F85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="G85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="H85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="I85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="J85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="K85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="L85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="M85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="N85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="O85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="P85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="Q85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="R85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="S85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="T85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="U85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="V85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="W85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="X85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="Y85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="Z85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="AA85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="AB85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="AC85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="AD85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="AE85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="AF85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="AG85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="AH85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="AI85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="AJ85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="AK85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="AL85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="AM85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="AN85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="AO85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="AP85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="AQ85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="AR85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="AS85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="AT85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="AU85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="AV85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="AW85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="AX85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="AY85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="AZ85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="BA85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="BB85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="BC85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="BD85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="BE85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="BF85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="BG85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="BH85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="BI85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="BJ85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="BK85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="BL85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="BM85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="BN85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="BO85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="BP85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="BQ85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="BR85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="BS85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="BT85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="BU85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="BV85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="BW85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="BX85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="BY85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="BZ85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="CA85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="CB85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="CC85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="CD85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="CE85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="CF85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="CG85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="CH85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="CI85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="CJ85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="CK85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="CL85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="CM85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="CN85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="CO85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="CP85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="CQ85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="CR85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="CS85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="CT85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="CU85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="CV85">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="CW85">
+        <v>2.564102564102564</v>
+      </c>
+    </row>
+    <row r="89" spans="2:101">
+      <c r="B89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="C89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="D89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="E89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="F89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="G89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="H89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="I89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="J89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="K89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="L89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="M89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="N89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="O89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="P89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="Q89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="R89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="S89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="T89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="U89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="V89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="W89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="X89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="Y89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="Z89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="AA89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="AB89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="AC89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="AD89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="AE89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="AF89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="AG89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="AH89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="AI89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="AJ89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="AK89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="AL89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="AM89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="AN89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="AO89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="AP89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="AQ89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="AR89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="AS89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="AT89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="AU89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="AV89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="AW89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="AX89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="AY89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="AZ89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="BA89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="BB89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="BC89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="BD89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="BE89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="BF89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="BG89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="BH89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="BI89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="BJ89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="BK89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="BL89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="BM89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="BN89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="BO89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="BP89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="BQ89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="BR89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="BS89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="BT89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="BU89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="BV89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="BW89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="BX89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="BY89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="BZ89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="CA89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="CB89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="CC89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="CD89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="CE89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="CF89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="CG89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="CH89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="CI89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="CJ89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="CK89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="CL89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="CM89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="CN89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="CO89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="CP89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="CQ89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="CR89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="CS89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="CT89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="CU89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="CV89">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="CW89">
+        <v>0.4273504273504273</v>
       </c>
     </row>
   </sheetData>
